--- a/analysis/mails_01/P10_2/table_to_fill.xlsx
+++ b/analysis/mails_01/P10_2/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -63,7 +63,7 @@
     <t xml:space="preserve">sediment</t>
   </si>
   <si>
-    <t xml:space="preserve">11/05/2020 14:01</t>
+    <t xml:space="preserve">2020-05-11</t>
   </si>
   <si>
     <t xml:space="preserve">56.8255</t>
@@ -108,7 +108,7 @@
     <t xml:space="preserve">MFD00200</t>
   </si>
   <si>
-    <t xml:space="preserve">07/12/2018 00:00</t>
+    <t xml:space="preserve">2018-12-07</t>
   </si>
   <si>
     <t xml:space="preserve">56.4786</t>
@@ -159,7 +159,7 @@
     <t xml:space="preserve">MFD00204</t>
   </si>
   <si>
-    <t xml:space="preserve">03/12/2018 00:00</t>
+    <t xml:space="preserve">2018-12-03</t>
   </si>
   <si>
     <t xml:space="preserve">56.6939891</t>
@@ -267,7 +267,7 @@
     <t xml:space="preserve">MFD00215</t>
   </si>
   <si>
-    <t xml:space="preserve">05/12/2018 00:00</t>
+    <t xml:space="preserve">2018-12-05</t>
   </si>
   <si>
     <t xml:space="preserve">56.899703</t>
@@ -393,7 +393,7 @@
     <t xml:space="preserve">MFD01464</t>
   </si>
   <si>
-    <t xml:space="preserve">30/04/2022 00:00</t>
+    <t xml:space="preserve">2022-04-30</t>
   </si>
   <si>
     <t xml:space="preserve">55.6651</t>
@@ -405,7 +405,7 @@
     <t xml:space="preserve">MFD01536</t>
   </si>
   <si>
-    <t xml:space="preserve">12/04/2022 00:00</t>
+    <t xml:space="preserve">2022-04-12</t>
   </si>
   <si>
     <t xml:space="preserve">55.2976</t>
@@ -417,7 +417,7 @@
     <t xml:space="preserve">MFD03613</t>
   </si>
   <si>
-    <t xml:space="preserve">28/04/2022 12:44</t>
+    <t xml:space="preserve">2022-04-28</t>
   </si>
   <si>
     <t xml:space="preserve">55.8743</t>
@@ -429,7 +429,7 @@
     <t xml:space="preserve">MFD04196</t>
   </si>
   <si>
-    <t xml:space="preserve">11/04/2022 12:04</t>
+    <t xml:space="preserve">2022-04-11</t>
   </si>
   <si>
     <t xml:space="preserve">55.1461</t>
@@ -441,9 +441,6 @@
     <t xml:space="preserve">MFD04217</t>
   </si>
   <si>
-    <t xml:space="preserve">11/04/2022 13:43</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.1982</t>
   </si>
   <si>
@@ -453,9 +450,6 @@
     <t xml:space="preserve">MFD04220</t>
   </si>
   <si>
-    <t xml:space="preserve">12/04/2022 02:33</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.9234</t>
   </si>
   <si>
@@ -465,7 +459,7 @@
     <t xml:space="preserve">MFD04226</t>
   </si>
   <si>
-    <t xml:space="preserve">01/05/2021 00:00</t>
+    <t xml:space="preserve">2021-05-01</t>
   </si>
   <si>
     <t xml:space="preserve">55.4648</t>
@@ -477,7 +471,7 @@
     <t xml:space="preserve">MFD04236</t>
   </si>
   <si>
-    <t xml:space="preserve">12/05/2021 00:00</t>
+    <t xml:space="preserve">2021-05-12</t>
   </si>
   <si>
     <t xml:space="preserve">56.9518</t>
@@ -507,7 +501,7 @@
     <t xml:space="preserve">MFD04379</t>
   </si>
   <si>
-    <t xml:space="preserve">02/06/2021 00:00</t>
+    <t xml:space="preserve">2021-06-02</t>
   </si>
   <si>
     <t xml:space="preserve">56.114</t>
@@ -528,7 +522,7 @@
     <t xml:space="preserve">MFD04604</t>
   </si>
   <si>
-    <t xml:space="preserve">18/04/2021 00:00</t>
+    <t xml:space="preserve">2021-04-18</t>
   </si>
   <si>
     <t xml:space="preserve">55.2347</t>
@@ -540,7 +534,7 @@
     <t xml:space="preserve">MFD04605</t>
   </si>
   <si>
-    <t xml:space="preserve">06/05/2021 00:00</t>
+    <t xml:space="preserve">2021-05-06</t>
   </si>
   <si>
     <t xml:space="preserve">56.7159</t>
@@ -561,7 +555,7 @@
     <t xml:space="preserve">MFD04607</t>
   </si>
   <si>
-    <t xml:space="preserve">06/04/2021 00:00</t>
+    <t xml:space="preserve">2021-04-06</t>
   </si>
   <si>
     <t xml:space="preserve">57.0244</t>
@@ -597,7 +591,7 @@
     <t xml:space="preserve">MFD04615</t>
   </si>
   <si>
-    <t xml:space="preserve">25/04/2021 00:00</t>
+    <t xml:space="preserve">2021-04-25</t>
   </si>
   <si>
     <t xml:space="preserve">55.4049</t>
@@ -627,7 +621,7 @@
     <t xml:space="preserve">MFD04618</t>
   </si>
   <si>
-    <t xml:space="preserve">12/04/2021 00:00</t>
+    <t xml:space="preserve">2021-04-12</t>
   </si>
   <si>
     <t xml:space="preserve">57.0167</t>
@@ -648,7 +642,7 @@
     <t xml:space="preserve">MFD04622</t>
   </si>
   <si>
-    <t xml:space="preserve">02/05/2021 00:00</t>
+    <t xml:space="preserve">2021-05-02</t>
   </si>
   <si>
     <t xml:space="preserve">55.2429</t>
@@ -669,7 +663,7 @@
     <t xml:space="preserve">MFD04625</t>
   </si>
   <si>
-    <t xml:space="preserve">04/05/2021 00:00</t>
+    <t xml:space="preserve">2021-05-04</t>
   </si>
   <si>
     <t xml:space="preserve">56.796</t>
@@ -756,7 +750,7 @@
     <t xml:space="preserve">MFD04640</t>
   </si>
   <si>
-    <t xml:space="preserve">03/06/2021 00:00</t>
+    <t xml:space="preserve">2021-06-03</t>
   </si>
   <si>
     <t xml:space="preserve">56.3002</t>
@@ -813,7 +807,7 @@
     <t xml:space="preserve">MFD04648</t>
   </si>
   <si>
-    <t xml:space="preserve">05/05/2021 00:00</t>
+    <t xml:space="preserve">2021-05-05</t>
   </si>
   <si>
     <t xml:space="preserve">57.2737</t>
@@ -825,7 +819,7 @@
     <t xml:space="preserve">MFD04649</t>
   </si>
   <si>
-    <t xml:space="preserve">04/06/2021 00:00</t>
+    <t xml:space="preserve">2021-06-04</t>
   </si>
   <si>
     <t xml:space="preserve">56.3706</t>
@@ -837,7 +831,7 @@
     <t xml:space="preserve">MFD04650</t>
   </si>
   <si>
-    <t xml:space="preserve">03/05/2021 00:00</t>
+    <t xml:space="preserve">2021-05-03</t>
   </si>
   <si>
     <t xml:space="preserve">57.4202</t>
@@ -993,9 +987,6 @@
     <t xml:space="preserve">MFD04676</t>
   </si>
   <si>
-    <t xml:space="preserve">12/04/2022 07:19</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.4323</t>
   </si>
   <si>
@@ -1257,9 +1248,6 @@
     <t xml:space="preserve">MFD04871</t>
   </si>
   <si>
-    <t xml:space="preserve">11/04/2022 10:12</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.178</t>
   </si>
   <si>
@@ -1269,9 +1257,6 @@
     <t xml:space="preserve">MFD05031</t>
   </si>
   <si>
-    <t xml:space="preserve">12/04/2022 06:33</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.4018</t>
   </si>
   <si>
@@ -1281,7 +1266,7 @@
     <t xml:space="preserve">MFD05633</t>
   </si>
   <si>
-    <t xml:space="preserve">29/04/2022 03:34</t>
+    <t xml:space="preserve">2022-04-29</t>
   </si>
   <si>
     <t xml:space="preserve">55.9163</t>
@@ -1293,9 +1278,6 @@
     <t xml:space="preserve">MFD09467</t>
   </si>
   <si>
-    <t xml:space="preserve">30/04/2022 04:18</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.1057</t>
   </si>
   <si>
@@ -1305,9 +1287,6 @@
     <t xml:space="preserve">MFD09470</t>
   </si>
   <si>
-    <t xml:space="preserve">29/04/2022 06:15</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.0605</t>
   </si>
   <si>
@@ -1317,9 +1296,6 @@
     <t xml:space="preserve">MFD09509</t>
   </si>
   <si>
-    <t xml:space="preserve">29/04/2022 08:46</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.0729</t>
   </si>
   <si>
@@ -1329,9 +1305,6 @@
     <t xml:space="preserve">MFD09536</t>
   </si>
   <si>
-    <t xml:space="preserve">30/04/2022 09:34</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7702</t>
   </si>
   <si>
@@ -1341,9 +1314,6 @@
     <t xml:space="preserve">MFD09557</t>
   </si>
   <si>
-    <t xml:space="preserve">30/04/2022 10:29</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7607</t>
   </si>
   <si>
@@ -1353,9 +1323,6 @@
     <t xml:space="preserve">MFD09578</t>
   </si>
   <si>
-    <t xml:space="preserve">12/04/2022 03:59</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.0961</t>
   </si>
   <si>
@@ -1365,7 +1332,7 @@
     <t xml:space="preserve">MFD09619</t>
   </si>
   <si>
-    <t xml:space="preserve">13/04/2022 03:47</t>
+    <t xml:space="preserve">2022-04-13</t>
   </si>
   <si>
     <t xml:space="preserve">55.7757</t>
@@ -1377,9 +1344,6 @@
     <t xml:space="preserve">MFD09666</t>
   </si>
   <si>
-    <t xml:space="preserve">11/04/2022 09:12</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.2303</t>
   </si>
   <si>
@@ -1389,9 +1353,6 @@
     <t xml:space="preserve">MFD09686</t>
   </si>
   <si>
-    <t xml:space="preserve">11/04/2022 12:50</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.1601</t>
   </si>
   <si>
@@ -1401,7 +1362,7 @@
     <t xml:space="preserve">MFD09704</t>
   </si>
   <si>
-    <t xml:space="preserve">01/04/2022 09:26</t>
+    <t xml:space="preserve">2022-04-01</t>
   </si>
   <si>
     <t xml:space="preserve">55.1122</t>
@@ -1413,9 +1374,6 @@
     <t xml:space="preserve">MFD09743</t>
   </si>
   <si>
-    <t xml:space="preserve">29/04/2022 05:23</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.0396</t>
   </si>
   <si>
@@ -1425,9 +1383,6 @@
     <t xml:space="preserve">MFD09745</t>
   </si>
   <si>
-    <t xml:space="preserve">01/04/2022 12:53</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.6005</t>
   </si>
   <si>
@@ -1437,9 +1392,6 @@
     <t xml:space="preserve">MFD09773</t>
   </si>
   <si>
-    <t xml:space="preserve">01/04/2022 11:25</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.5688</t>
   </si>
   <si>
@@ -1449,9 +1401,6 @@
     <t xml:space="preserve">MFD09778</t>
   </si>
   <si>
-    <t xml:space="preserve">28/04/2022 10:33</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.6602</t>
   </si>
   <si>
@@ -1461,7 +1410,7 @@
     <t xml:space="preserve">MFD09812</t>
   </si>
   <si>
-    <t xml:space="preserve">30/03/2022 07:19</t>
+    <t xml:space="preserve">2022-03-30</t>
   </si>
   <si>
     <t xml:space="preserve">57.0067</t>
@@ -1473,9 +1422,6 @@
     <t xml:space="preserve">MFD09830</t>
   </si>
   <si>
-    <t xml:space="preserve">01/04/2022 13:45</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7015</t>
   </si>
   <si>
@@ -1485,9 +1431,6 @@
     <t xml:space="preserve">MFD09831</t>
   </si>
   <si>
-    <t xml:space="preserve">28/04/2022 11:38</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.8501</t>
   </si>
   <si>
@@ -1497,9 +1440,6 @@
     <t xml:space="preserve">MFD09833</t>
   </si>
   <si>
-    <t xml:space="preserve">30/04/2022 06:12</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.9637</t>
   </si>
   <si>
@@ -1509,9 +1449,6 @@
     <t xml:space="preserve">MFD09869</t>
   </si>
   <si>
-    <t xml:space="preserve">29/04/2022 04:22</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.0034</t>
   </si>
   <si>
@@ -1521,9 +1458,6 @@
     <t xml:space="preserve">MFD09877</t>
   </si>
   <si>
-    <t xml:space="preserve">30/04/2022 05:14</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.9917</t>
   </si>
   <si>
@@ -1531,9 +1465,6 @@
   </si>
   <si>
     <t xml:space="preserve">MFD09953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/04/2022 07:25</t>
   </si>
   <si>
     <t xml:space="preserve">55.8788</t>
@@ -3247,13 +3178,13 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" t="s">
         <v>142</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>143</v>
-      </c>
-      <c r="E32" t="s">
-        <v>144</v>
       </c>
       <c r="F32" t="s">
         <v>19</v>
@@ -3281,19 +3212,19 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" t="s">
         <v>145</v>
       </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>146</v>
-      </c>
-      <c r="D33" t="s">
-        <v>147</v>
-      </c>
-      <c r="E33" t="s">
-        <v>148</v>
       </c>
       <c r="F33" t="s">
         <v>19</v>
@@ -3321,19 +3252,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" t="s">
         <v>149</v>
       </c>
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>150</v>
-      </c>
-      <c r="D34" t="s">
-        <v>151</v>
-      </c>
-      <c r="E34" t="s">
-        <v>152</v>
       </c>
       <c r="F34" t="s">
         <v>19</v>
@@ -3361,19 +3292,19 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" t="s">
         <v>153</v>
       </c>
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>154</v>
-      </c>
-      <c r="D35" t="s">
-        <v>155</v>
-      </c>
-      <c r="E35" t="s">
-        <v>156</v>
       </c>
       <c r="F35" t="s">
         <v>19</v>
@@ -3401,19 +3332,19 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" t="s">
         <v>157</v>
-      </c>
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" t="s">
-        <v>154</v>
-      </c>
-      <c r="D36" t="s">
-        <v>158</v>
-      </c>
-      <c r="E36" t="s">
-        <v>159</v>
       </c>
       <c r="F36" t="s">
         <v>19</v>
@@ -3441,19 +3372,19 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" t="s">
         <v>160</v>
-      </c>
-      <c r="B37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" t="s">
-        <v>150</v>
-      </c>
-      <c r="D37" t="s">
-        <v>161</v>
-      </c>
-      <c r="E37" t="s">
-        <v>162</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
@@ -3481,19 +3412,19 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" t="s">
         <v>163</v>
       </c>
-      <c r="B38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>164</v>
-      </c>
-      <c r="D38" t="s">
-        <v>165</v>
-      </c>
-      <c r="E38" t="s">
-        <v>166</v>
       </c>
       <c r="F38" t="s">
         <v>19</v>
@@ -3521,19 +3452,19 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" t="s">
         <v>167</v>
-      </c>
-      <c r="B39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" t="s">
-        <v>150</v>
-      </c>
-      <c r="D39" t="s">
-        <v>168</v>
-      </c>
-      <c r="E39" t="s">
-        <v>169</v>
       </c>
       <c r="F39" t="s">
         <v>19</v>
@@ -3561,19 +3492,19 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" t="s">
         <v>170</v>
       </c>
-      <c r="B40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>171</v>
-      </c>
-      <c r="D40" t="s">
-        <v>172</v>
-      </c>
-      <c r="E40" t="s">
-        <v>173</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
@@ -3601,19 +3532,19 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" t="s">
         <v>174</v>
       </c>
-      <c r="B41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>175</v>
-      </c>
-      <c r="D41" t="s">
-        <v>176</v>
-      </c>
-      <c r="E41" t="s">
-        <v>177</v>
       </c>
       <c r="F41" t="s">
         <v>19</v>
@@ -3641,19 +3572,19 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" t="s">
         <v>178</v>
-      </c>
-      <c r="B42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" t="s">
-        <v>171</v>
-      </c>
-      <c r="D42" t="s">
-        <v>179</v>
-      </c>
-      <c r="E42" t="s">
-        <v>180</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
@@ -3681,19 +3612,19 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>179</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" t="s">
         <v>181</v>
       </c>
-      <c r="B43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>182</v>
-      </c>
-      <c r="D43" t="s">
-        <v>183</v>
-      </c>
-      <c r="E43" t="s">
-        <v>184</v>
       </c>
       <c r="F43" t="s">
         <v>19</v>
@@ -3721,28 +3652,28 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" t="s">
+        <v>184</v>
+      </c>
+      <c r="E44" t="s">
         <v>185</v>
       </c>
-      <c r="B44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" t="s">
-        <v>175</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" t="s">
         <v>186</v>
-      </c>
-      <c r="E44" t="s">
-        <v>187</v>
-      </c>
-      <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" t="s">
-        <v>188</v>
       </c>
       <c r="I44" t="s">
         <v>22</v>
@@ -3763,28 +3694,28 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" t="s">
+        <v>188</v>
+      </c>
+      <c r="E45" t="s">
         <v>189</v>
       </c>
-      <c r="B45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" t="s">
-        <v>175</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" t="s">
         <v>190</v>
-      </c>
-      <c r="E45" t="s">
-        <v>191</v>
-      </c>
-      <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" t="s">
-        <v>192</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
@@ -3805,19 +3736,19 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" t="s">
         <v>193</v>
       </c>
-      <c r="B46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="E46" t="s">
         <v>194</v>
-      </c>
-      <c r="D46" t="s">
-        <v>195</v>
-      </c>
-      <c r="E46" t="s">
-        <v>196</v>
       </c>
       <c r="F46" t="s">
         <v>19</v>
@@ -3845,19 +3776,19 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>195</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" t="s">
+        <v>196</v>
+      </c>
+      <c r="E47" t="s">
         <v>197</v>
-      </c>
-      <c r="B47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" t="s">
-        <v>198</v>
-      </c>
-      <c r="E47" t="s">
-        <v>199</v>
       </c>
       <c r="F47" t="s">
         <v>19</v>
@@ -3885,19 +3816,19 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>198</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" t="s">
+        <v>199</v>
+      </c>
+      <c r="E48" t="s">
         <v>200</v>
-      </c>
-      <c r="B48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" t="s">
-        <v>150</v>
-      </c>
-      <c r="D48" t="s">
-        <v>201</v>
-      </c>
-      <c r="E48" t="s">
-        <v>202</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
@@ -3925,19 +3856,19 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" t="s">
         <v>203</v>
       </c>
-      <c r="B49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>204</v>
-      </c>
-      <c r="D49" t="s">
-        <v>205</v>
-      </c>
-      <c r="E49" t="s">
-        <v>206</v>
       </c>
       <c r="F49" t="s">
         <v>19</v>
@@ -3965,19 +3896,19 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>205</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" t="s">
+        <v>206</v>
+      </c>
+      <c r="E50" t="s">
         <v>207</v>
-      </c>
-      <c r="B50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" t="s">
-        <v>171</v>
-      </c>
-      <c r="D50" t="s">
-        <v>208</v>
-      </c>
-      <c r="E50" t="s">
-        <v>209</v>
       </c>
       <c r="F50" t="s">
         <v>19</v>
@@ -4005,19 +3936,19 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>209</v>
+      </c>
+      <c r="D51" t="s">
         <v>210</v>
       </c>
-      <c r="B51" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="E51" t="s">
         <v>211</v>
-      </c>
-      <c r="D51" t="s">
-        <v>212</v>
-      </c>
-      <c r="E51" t="s">
-        <v>213</v>
       </c>
       <c r="F51" t="s">
         <v>19</v>
@@ -4045,19 +3976,19 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>212</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" t="s">
+        <v>213</v>
+      </c>
+      <c r="E52" t="s">
         <v>214</v>
-      </c>
-      <c r="B52" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" t="s">
-        <v>150</v>
-      </c>
-      <c r="D52" t="s">
-        <v>215</v>
-      </c>
-      <c r="E52" t="s">
-        <v>216</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
@@ -4085,19 +4016,19 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>215</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>216</v>
+      </c>
+      <c r="D53" t="s">
         <v>217</v>
       </c>
-      <c r="B53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>218</v>
-      </c>
-      <c r="D53" t="s">
-        <v>219</v>
-      </c>
-      <c r="E53" t="s">
-        <v>220</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
@@ -4125,19 +4056,19 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>219</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" t="s">
+        <v>220</v>
+      </c>
+      <c r="E54" t="s">
         <v>221</v>
-      </c>
-      <c r="B54" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" t="s">
-        <v>150</v>
-      </c>
-      <c r="D54" t="s">
-        <v>222</v>
-      </c>
-      <c r="E54" t="s">
-        <v>223</v>
       </c>
       <c r="F54" t="s">
         <v>19</v>
@@ -4165,19 +4096,19 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>222</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" t="s">
+        <v>223</v>
+      </c>
+      <c r="E55" t="s">
         <v>224</v>
-      </c>
-      <c r="B55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" t="s">
-        <v>164</v>
-      </c>
-      <c r="D55" t="s">
-        <v>225</v>
-      </c>
-      <c r="E55" t="s">
-        <v>226</v>
       </c>
       <c r="F55" t="s">
         <v>19</v>
@@ -4205,19 +4136,19 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>225</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" t="s">
+        <v>226</v>
+      </c>
+      <c r="E56" t="s">
         <v>227</v>
-      </c>
-      <c r="B56" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" t="s">
-        <v>171</v>
-      </c>
-      <c r="D56" t="s">
-        <v>228</v>
-      </c>
-      <c r="E56" t="s">
-        <v>229</v>
       </c>
       <c r="F56" t="s">
         <v>19</v>
@@ -4245,19 +4176,19 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>228</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>209</v>
+      </c>
+      <c r="D57" t="s">
+        <v>229</v>
+      </c>
+      <c r="E57" t="s">
         <v>230</v>
-      </c>
-      <c r="B57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" t="s">
-        <v>211</v>
-      </c>
-      <c r="D57" t="s">
-        <v>231</v>
-      </c>
-      <c r="E57" t="s">
-        <v>232</v>
       </c>
       <c r="F57" t="s">
         <v>19</v>
@@ -4285,19 +4216,19 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>231</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>162</v>
+      </c>
+      <c r="D58" t="s">
+        <v>232</v>
+      </c>
+      <c r="E58" t="s">
         <v>233</v>
-      </c>
-      <c r="B58" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" t="s">
-        <v>164</v>
-      </c>
-      <c r="D58" t="s">
-        <v>234</v>
-      </c>
-      <c r="E58" t="s">
-        <v>235</v>
       </c>
       <c r="F58" t="s">
         <v>19</v>
@@ -4325,19 +4256,19 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>234</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>209</v>
+      </c>
+      <c r="D59" t="s">
+        <v>235</v>
+      </c>
+      <c r="E59" t="s">
         <v>236</v>
-      </c>
-      <c r="B59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" t="s">
-        <v>211</v>
-      </c>
-      <c r="D59" t="s">
-        <v>237</v>
-      </c>
-      <c r="E59" t="s">
-        <v>238</v>
       </c>
       <c r="F59" t="s">
         <v>19</v>
@@ -4365,19 +4296,19 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>237</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>216</v>
+      </c>
+      <c r="D60" t="s">
+        <v>238</v>
+      </c>
+      <c r="E60" t="s">
         <v>239</v>
-      </c>
-      <c r="B60" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" t="s">
-        <v>218</v>
-      </c>
-      <c r="D60" t="s">
-        <v>240</v>
-      </c>
-      <c r="E60" t="s">
-        <v>241</v>
       </c>
       <c r="F60" t="s">
         <v>19</v>
@@ -4405,19 +4336,19 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>240</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>209</v>
+      </c>
+      <c r="D61" t="s">
+        <v>241</v>
+      </c>
+      <c r="E61" t="s">
         <v>242</v>
-      </c>
-      <c r="B61" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" t="s">
-        <v>211</v>
-      </c>
-      <c r="D61" t="s">
-        <v>243</v>
-      </c>
-      <c r="E61" t="s">
-        <v>244</v>
       </c>
       <c r="F61" t="s">
         <v>19</v>
@@ -4445,13 +4376,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -4481,19 +4412,19 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>244</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>245</v>
+      </c>
+      <c r="D63" t="s">
         <v>246</v>
       </c>
-      <c r="B63" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="E63" t="s">
         <v>247</v>
-      </c>
-      <c r="D63" t="s">
-        <v>248</v>
-      </c>
-      <c r="E63" t="s">
-        <v>249</v>
       </c>
       <c r="F63" t="s">
         <v>19</v>
@@ -4521,19 +4452,19 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>248</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" t="s">
+        <v>249</v>
+      </c>
+      <c r="E64" t="s">
         <v>250</v>
-      </c>
-      <c r="B64" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" t="s">
-        <v>171</v>
-      </c>
-      <c r="D64" t="s">
-        <v>251</v>
-      </c>
-      <c r="E64" t="s">
-        <v>252</v>
       </c>
       <c r="F64" t="s">
         <v>19</v>
@@ -4561,19 +4492,19 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>251</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>245</v>
+      </c>
+      <c r="D65" t="s">
+        <v>252</v>
+      </c>
+      <c r="E65" t="s">
         <v>253</v>
-      </c>
-      <c r="B65" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" t="s">
-        <v>247</v>
-      </c>
-      <c r="D65" t="s">
-        <v>254</v>
-      </c>
-      <c r="E65" t="s">
-        <v>255</v>
       </c>
       <c r="F65" t="s">
         <v>19</v>
@@ -4601,19 +4532,19 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>254</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>216</v>
+      </c>
+      <c r="D66" t="s">
+        <v>255</v>
+      </c>
+      <c r="E66" t="s">
         <v>256</v>
-      </c>
-      <c r="B66" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" t="s">
-        <v>218</v>
-      </c>
-      <c r="D66" t="s">
-        <v>257</v>
-      </c>
-      <c r="E66" t="s">
-        <v>258</v>
       </c>
       <c r="F66" t="s">
         <v>19</v>
@@ -4641,19 +4572,19 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>257</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>162</v>
+      </c>
+      <c r="D67" t="s">
+        <v>258</v>
+      </c>
+      <c r="E67" t="s">
         <v>259</v>
-      </c>
-      <c r="B67" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" t="s">
-        <v>164</v>
-      </c>
-      <c r="D67" t="s">
-        <v>260</v>
-      </c>
-      <c r="E67" t="s">
-        <v>261</v>
       </c>
       <c r="F67" t="s">
         <v>19</v>
@@ -4681,19 +4612,19 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>260</v>
+      </c>
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" t="s">
+        <v>148</v>
+      </c>
+      <c r="D68" t="s">
+        <v>261</v>
+      </c>
+      <c r="E68" t="s">
         <v>262</v>
-      </c>
-      <c r="B68" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" t="s">
-        <v>150</v>
-      </c>
-      <c r="D68" t="s">
-        <v>263</v>
-      </c>
-      <c r="E68" t="s">
-        <v>264</v>
       </c>
       <c r="F68" t="s">
         <v>19</v>
@@ -4721,19 +4652,19 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>263</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>264</v>
+      </c>
+      <c r="D69" t="s">
         <v>265</v>
       </c>
-      <c r="B69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="E69" t="s">
         <v>266</v>
-      </c>
-      <c r="D69" t="s">
-        <v>267</v>
-      </c>
-      <c r="E69" t="s">
-        <v>268</v>
       </c>
       <c r="F69" t="s">
         <v>19</v>
@@ -4761,19 +4692,19 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>267</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" t="s">
+        <v>268</v>
+      </c>
+      <c r="D70" t="s">
         <v>269</v>
       </c>
-      <c r="B70" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="E70" t="s">
         <v>270</v>
-      </c>
-      <c r="D70" t="s">
-        <v>271</v>
-      </c>
-      <c r="E70" t="s">
-        <v>272</v>
       </c>
       <c r="F70" t="s">
         <v>19</v>
@@ -4801,19 +4732,19 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>271</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
+        <v>272</v>
+      </c>
+      <c r="D71" t="s">
         <v>273</v>
       </c>
-      <c r="B71" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="E71" t="s">
         <v>274</v>
-      </c>
-      <c r="D71" t="s">
-        <v>275</v>
-      </c>
-      <c r="E71" t="s">
-        <v>276</v>
       </c>
       <c r="F71" t="s">
         <v>19</v>
@@ -4841,19 +4772,19 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>275</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" t="s">
+        <v>268</v>
+      </c>
+      <c r="D72" t="s">
+        <v>276</v>
+      </c>
+      <c r="E72" t="s">
         <v>277</v>
-      </c>
-      <c r="B72" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" t="s">
-        <v>270</v>
-      </c>
-      <c r="D72" t="s">
-        <v>278</v>
-      </c>
-      <c r="E72" t="s">
-        <v>279</v>
       </c>
       <c r="F72" t="s">
         <v>19</v>
@@ -4881,19 +4812,19 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>278</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73" t="s">
+        <v>279</v>
+      </c>
+      <c r="E73" t="s">
         <v>280</v>
-      </c>
-      <c r="B73" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" t="s">
-        <v>154</v>
-      </c>
-      <c r="D73" t="s">
-        <v>281</v>
-      </c>
-      <c r="E73" t="s">
-        <v>282</v>
       </c>
       <c r="F73" t="s">
         <v>19</v>
@@ -4921,19 +4852,19 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>281</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" t="s">
+        <v>169</v>
+      </c>
+      <c r="D74" t="s">
+        <v>282</v>
+      </c>
+      <c r="E74" t="s">
         <v>283</v>
-      </c>
-      <c r="B74" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" t="s">
-        <v>171</v>
-      </c>
-      <c r="D74" t="s">
-        <v>284</v>
-      </c>
-      <c r="E74" t="s">
-        <v>285</v>
       </c>
       <c r="F74" t="s">
         <v>19</v>
@@ -4961,19 +4892,19 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>284</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" t="s">
+        <v>209</v>
+      </c>
+      <c r="D75" t="s">
+        <v>285</v>
+      </c>
+      <c r="E75" t="s">
         <v>286</v>
-      </c>
-      <c r="B75" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D75" t="s">
-        <v>287</v>
-      </c>
-      <c r="E75" t="s">
-        <v>288</v>
       </c>
       <c r="F75" t="s">
         <v>19</v>
@@ -5001,19 +4932,19 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>287</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>264</v>
+      </c>
+      <c r="D76" t="s">
+        <v>288</v>
+      </c>
+      <c r="E76" t="s">
         <v>289</v>
-      </c>
-      <c r="B76" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" t="s">
-        <v>266</v>
-      </c>
-      <c r="D76" t="s">
-        <v>290</v>
-      </c>
-      <c r="E76" t="s">
-        <v>291</v>
       </c>
       <c r="F76" t="s">
         <v>19</v>
@@ -5041,19 +4972,19 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>290</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" t="s">
+        <v>192</v>
+      </c>
+      <c r="D77" t="s">
+        <v>291</v>
+      </c>
+      <c r="E77" t="s">
         <v>292</v>
-      </c>
-      <c r="B77" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" t="s">
-        <v>194</v>
-      </c>
-      <c r="D77" t="s">
-        <v>293</v>
-      </c>
-      <c r="E77" t="s">
-        <v>294</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
@@ -5081,19 +5012,19 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>293</v>
+      </c>
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" t="s">
+        <v>272</v>
+      </c>
+      <c r="D78" t="s">
+        <v>294</v>
+      </c>
+      <c r="E78" t="s">
         <v>295</v>
-      </c>
-      <c r="B78" t="s">
-        <v>15</v>
-      </c>
-      <c r="C78" t="s">
-        <v>274</v>
-      </c>
-      <c r="D78" t="s">
-        <v>296</v>
-      </c>
-      <c r="E78" t="s">
-        <v>297</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
@@ -5121,19 +5052,19 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>296</v>
+      </c>
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" t="s">
+        <v>192</v>
+      </c>
+      <c r="D79" t="s">
+        <v>297</v>
+      </c>
+      <c r="E79" t="s">
         <v>298</v>
-      </c>
-      <c r="B79" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" t="s">
-        <v>194</v>
-      </c>
-      <c r="D79" t="s">
-        <v>299</v>
-      </c>
-      <c r="E79" t="s">
-        <v>300</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
@@ -5161,19 +5092,19 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>299</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" t="s">
+        <v>245</v>
+      </c>
+      <c r="D80" t="s">
+        <v>300</v>
+      </c>
+      <c r="E80" t="s">
         <v>301</v>
-      </c>
-      <c r="B80" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" t="s">
-        <v>247</v>
-      </c>
-      <c r="D80" t="s">
-        <v>302</v>
-      </c>
-      <c r="E80" t="s">
-        <v>303</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
@@ -5201,19 +5132,19 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>302</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" t="s">
+        <v>303</v>
+      </c>
+      <c r="E81" t="s">
         <v>304</v>
-      </c>
-      <c r="B81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" t="s">
-        <v>171</v>
-      </c>
-      <c r="D81" t="s">
-        <v>305</v>
-      </c>
-      <c r="E81" t="s">
-        <v>306</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
@@ -5241,19 +5172,19 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>305</v>
+      </c>
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" t="s">
+        <v>192</v>
+      </c>
+      <c r="D82" t="s">
+        <v>306</v>
+      </c>
+      <c r="E82" t="s">
         <v>307</v>
-      </c>
-      <c r="B82" t="s">
-        <v>15</v>
-      </c>
-      <c r="C82" t="s">
-        <v>194</v>
-      </c>
-      <c r="D82" t="s">
-        <v>308</v>
-      </c>
-      <c r="E82" t="s">
-        <v>309</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
@@ -5281,19 +5212,19 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>308</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" t="s">
+        <v>148</v>
+      </c>
+      <c r="D83" t="s">
+        <v>309</v>
+      </c>
+      <c r="E83" t="s">
         <v>310</v>
-      </c>
-      <c r="B83" t="s">
-        <v>15</v>
-      </c>
-      <c r="C83" t="s">
-        <v>150</v>
-      </c>
-      <c r="D83" t="s">
-        <v>311</v>
-      </c>
-      <c r="E83" t="s">
-        <v>312</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
@@ -5321,19 +5252,19 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>311</v>
+      </c>
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" t="s">
+        <v>264</v>
+      </c>
+      <c r="D84" t="s">
+        <v>312</v>
+      </c>
+      <c r="E84" t="s">
         <v>313</v>
-      </c>
-      <c r="B84" t="s">
-        <v>15</v>
-      </c>
-      <c r="C84" t="s">
-        <v>266</v>
-      </c>
-      <c r="D84" t="s">
-        <v>314</v>
-      </c>
-      <c r="E84" t="s">
-        <v>315</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
@@ -5361,19 +5292,19 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>314</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" t="s">
+        <v>148</v>
+      </c>
+      <c r="D85" t="s">
+        <v>315</v>
+      </c>
+      <c r="E85" t="s">
         <v>316</v>
-      </c>
-      <c r="B85" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" t="s">
-        <v>150</v>
-      </c>
-      <c r="D85" t="s">
-        <v>317</v>
-      </c>
-      <c r="E85" t="s">
-        <v>318</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
@@ -5401,19 +5332,19 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>317</v>
+      </c>
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" t="s">
+        <v>169</v>
+      </c>
+      <c r="D86" t="s">
+        <v>318</v>
+      </c>
+      <c r="E86" t="s">
         <v>319</v>
-      </c>
-      <c r="B86" t="s">
-        <v>15</v>
-      </c>
-      <c r="C86" t="s">
-        <v>171</v>
-      </c>
-      <c r="D86" t="s">
-        <v>320</v>
-      </c>
-      <c r="E86" t="s">
-        <v>321</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
@@ -5441,19 +5372,19 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>320</v>
+      </c>
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" t="s">
+        <v>152</v>
+      </c>
+      <c r="D87" t="s">
+        <v>321</v>
+      </c>
+      <c r="E87" t="s">
         <v>322</v>
-      </c>
-      <c r="B87" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" t="s">
-        <v>154</v>
-      </c>
-      <c r="D87" t="s">
-        <v>323</v>
-      </c>
-      <c r="E87" t="s">
-        <v>324</v>
       </c>
       <c r="F87" t="s">
         <v>19</v>
@@ -5481,19 +5412,19 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>323</v>
+      </c>
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" t="s">
+        <v>130</v>
+      </c>
+      <c r="D88" t="s">
+        <v>324</v>
+      </c>
+      <c r="E88" t="s">
         <v>325</v>
-      </c>
-      <c r="B88" t="s">
-        <v>15</v>
-      </c>
-      <c r="C88" t="s">
-        <v>326</v>
-      </c>
-      <c r="D88" t="s">
-        <v>327</v>
-      </c>
-      <c r="E88" t="s">
-        <v>328</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
@@ -5521,19 +5452,19 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D89" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E89" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
@@ -5561,19 +5492,19 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B90" t="s">
         <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D90" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E90" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
@@ -5601,19 +5532,19 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B91" t="s">
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D91" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E91" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
@@ -5641,19 +5572,19 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B92" t="s">
         <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D92" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E92" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F92" t="s">
         <v>19</v>
@@ -5681,19 +5612,19 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B93" t="s">
         <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D93" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E93" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F93" t="s">
         <v>19</v>
@@ -5721,19 +5652,19 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B94" t="s">
         <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D94" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E94" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F94" t="s">
         <v>19</v>
@@ -5761,19 +5692,19 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B95" t="s">
         <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D95" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E95" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F95" t="s">
         <v>19</v>
@@ -5801,19 +5732,19 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B96" t="s">
         <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D96" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E96" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F96" t="s">
         <v>19</v>
@@ -5841,19 +5772,19 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B97" t="s">
         <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D97" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E97" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F97" t="s">
         <v>19</v>
@@ -5881,19 +5812,19 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B98" t="s">
         <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D98" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E98" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F98" t="s">
         <v>19</v>
@@ -5921,19 +5852,19 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B99" t="s">
         <v>15</v>
       </c>
       <c r="C99" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D99" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E99" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F99" t="s">
         <v>19</v>
@@ -5961,19 +5892,19 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B100" t="s">
         <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D100" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E100" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F100" t="s">
         <v>19</v>
@@ -6001,19 +5932,19 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B101" t="s">
         <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D101" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E101" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
@@ -6041,19 +5972,19 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B102" t="s">
         <v>15</v>
       </c>
       <c r="C102" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D102" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E102" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
@@ -6081,19 +6012,19 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B103" t="s">
         <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D103" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E103" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
@@ -6121,19 +6052,19 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B104" t="s">
         <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D104" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E104" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
@@ -6161,19 +6092,19 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B105" t="s">
         <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D105" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E105" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
@@ -6201,19 +6132,19 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B106" t="s">
         <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D106" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E106" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
@@ -6241,19 +6172,19 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B107" t="s">
         <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D107" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E107" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F107" t="s">
         <v>19</v>
@@ -6281,19 +6212,19 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
       </c>
       <c r="C108" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D108" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E108" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F108" t="s">
         <v>19</v>
@@ -6321,19 +6252,19 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B109" t="s">
         <v>15</v>
       </c>
       <c r="C109" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D109" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E109" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F109" t="s">
         <v>19</v>
@@ -6361,19 +6292,19 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B110" t="s">
         <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D110" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E110" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F110" t="s">
         <v>19</v>
@@ -6401,19 +6332,19 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B111" t="s">
         <v>15</v>
       </c>
       <c r="C111" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D111" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E111" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F111" t="s">
         <v>19</v>
@@ -6441,19 +6372,19 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B112" t="s">
         <v>15</v>
       </c>
       <c r="C112" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D112" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E112" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F112" t="s">
         <v>19</v>
@@ -6481,19 +6412,19 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B113" t="s">
         <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D113" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E113" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F113" t="s">
         <v>19</v>
@@ -6521,19 +6452,19 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B114" t="s">
         <v>15</v>
       </c>
       <c r="C114" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D114" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E114" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F114" t="s">
         <v>19</v>
@@ -6561,19 +6492,19 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B115" t="s">
         <v>15</v>
       </c>
       <c r="C115" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D115" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E115" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F115" t="s">
         <v>19</v>
@@ -6601,19 +6532,19 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B116" t="s">
         <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D116" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E116" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F116" t="s">
         <v>19</v>
@@ -6641,19 +6572,19 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B117" t="s">
         <v>15</v>
       </c>
       <c r="C117" t="s">
-        <v>414</v>
+        <v>138</v>
       </c>
       <c r="D117" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E117" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F117" t="s">
         <v>19</v>
@@ -6681,19 +6612,19 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B118" t="s">
         <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>418</v>
+        <v>130</v>
       </c>
       <c r="D118" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E118" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F118" t="s">
         <v>19</v>
@@ -6721,19 +6652,19 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B119" t="s">
         <v>15</v>
       </c>
       <c r="C119" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D119" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E119" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F119" t="s">
         <v>19</v>
@@ -6761,19 +6692,19 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B120" t="s">
         <v>15</v>
       </c>
       <c r="C120" t="s">
-        <v>426</v>
+        <v>126</v>
       </c>
       <c r="D120" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E120" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F120" t="s">
         <v>19</v>
@@ -6801,19 +6732,19 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B121" t="s">
         <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="D121" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="E121" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="F121" t="s">
         <v>19</v>
@@ -6841,19 +6772,19 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B122" t="s">
         <v>15</v>
       </c>
       <c r="C122" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="D122" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="E122" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="F122" t="s">
         <v>19</v>
@@ -6881,19 +6812,19 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B123" t="s">
         <v>15</v>
       </c>
       <c r="C123" t="s">
-        <v>438</v>
+        <v>126</v>
       </c>
       <c r="D123" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="E123" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="F123" t="s">
         <v>19</v>
@@ -6921,19 +6852,19 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="B124" t="s">
         <v>15</v>
       </c>
       <c r="C124" t="s">
-        <v>442</v>
+        <v>126</v>
       </c>
       <c r="D124" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="E124" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="F124" t="s">
         <v>19</v>
@@ -6961,19 +6892,19 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B125" t="s">
         <v>15</v>
       </c>
       <c r="C125" t="s">
-        <v>446</v>
+        <v>130</v>
       </c>
       <c r="D125" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="E125" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="F125" t="s">
         <v>19</v>
@@ -7001,19 +6932,19 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="B126" t="s">
         <v>15</v>
       </c>
       <c r="C126" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="D126" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="E126" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="F126" t="s">
         <v>19</v>
@@ -7041,19 +6972,19 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B127" t="s">
         <v>15</v>
       </c>
       <c r="C127" t="s">
-        <v>454</v>
+        <v>138</v>
       </c>
       <c r="D127" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="E127" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="F127" t="s">
         <v>19</v>
@@ -7081,19 +7012,19 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="B128" t="s">
         <v>15</v>
       </c>
       <c r="C128" t="s">
-        <v>458</v>
+        <v>138</v>
       </c>
       <c r="D128" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="E128" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="F128" t="s">
         <v>19</v>
@@ -7121,19 +7052,19 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="B129" t="s">
         <v>15</v>
       </c>
       <c r="C129" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="D129" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="E129" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="F129" t="s">
         <v>19</v>
@@ -7161,19 +7092,19 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="B130" t="s">
         <v>15</v>
       </c>
       <c r="C130" t="s">
-        <v>466</v>
+        <v>417</v>
       </c>
       <c r="D130" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="E130" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="F130" t="s">
         <v>19</v>
@@ -7201,19 +7132,19 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="B131" t="s">
         <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="D131" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="E131" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="F131" t="s">
         <v>19</v>
@@ -7241,19 +7172,19 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="B132" t="s">
         <v>15</v>
       </c>
       <c r="C132" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="D132" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="E132" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="F132" t="s">
         <v>19</v>
@@ -7281,19 +7212,19 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="B133" t="s">
         <v>15</v>
       </c>
       <c r="C133" t="s">
-        <v>478</v>
+        <v>134</v>
       </c>
       <c r="D133" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="E133" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="F133" t="s">
         <v>19</v>
@@ -7321,19 +7252,19 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="B134" t="s">
         <v>15</v>
       </c>
       <c r="C134" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="D134" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="E134" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="F134" t="s">
         <v>19</v>
@@ -7361,19 +7292,19 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="B135" t="s">
         <v>15</v>
       </c>
       <c r="C135" t="s">
-        <v>486</v>
+        <v>449</v>
       </c>
       <c r="D135" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="E135" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="F135" t="s">
         <v>19</v>
@@ -7401,19 +7332,19 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="B136" t="s">
         <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>490</v>
+        <v>134</v>
       </c>
       <c r="D136" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="E136" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="F136" t="s">
         <v>19</v>
@@ -7441,19 +7372,19 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="B137" t="s">
         <v>15</v>
       </c>
       <c r="C137" t="s">
-        <v>494</v>
+        <v>126</v>
       </c>
       <c r="D137" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="E137" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="F137" t="s">
         <v>19</v>
@@ -7481,19 +7412,19 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="B138" t="s">
         <v>15</v>
       </c>
       <c r="C138" t="s">
-        <v>498</v>
+        <v>417</v>
       </c>
       <c r="D138" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="E138" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="F138" t="s">
         <v>19</v>
@@ -7521,19 +7452,19 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="B139" t="s">
         <v>15</v>
       </c>
       <c r="C139" t="s">
-        <v>502</v>
+        <v>126</v>
       </c>
       <c r="D139" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="E139" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="F139" t="s">
         <v>19</v>
@@ -7561,19 +7492,19 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="B140" t="s">
         <v>15</v>
       </c>
       <c r="C140" t="s">
-        <v>506</v>
+        <v>126</v>
       </c>
       <c r="D140" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="E140" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="F140" t="s">
         <v>19</v>
@@ -7615,10 +7546,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2">
@@ -7626,7 +7557,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3">
@@ -7634,7 +7565,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4">
@@ -7642,7 +7573,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5">
@@ -7650,7 +7581,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6">
@@ -7658,7 +7589,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7">
@@ -7666,7 +7597,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8">
@@ -7674,7 +7605,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9">
@@ -7682,7 +7613,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10">
@@ -7690,7 +7621,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11">
@@ -7698,7 +7629,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>520</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12">
@@ -7706,7 +7637,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>521</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13">
@@ -7714,7 +7645,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14">
@@ -7722,7 +7653,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15">
@@ -7730,7 +7661,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>524</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P10_2/table_to_fill.xlsx
+++ b/analysis/mails_01/P10_2/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="587">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -63,7 +63,7 @@
     <t xml:space="preserve">sediment</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-05-11</t>
+    <t xml:space="preserve">2018-12-11</t>
   </si>
   <si>
     <t xml:space="preserve">56.8255</t>
@@ -99,12 +99,18 @@
     <t xml:space="preserve">MFD00199</t>
   </si>
   <si>
+    <t xml:space="preserve">2018-11-23</t>
+  </si>
+  <si>
     <t xml:space="preserve">56.5964</t>
   </si>
   <si>
     <t xml:space="preserve">10.0426</t>
   </si>
   <si>
+    <t xml:space="preserve">Mariager fjord</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD00200</t>
   </si>
   <si>
@@ -123,18 +129,24 @@
     <t xml:space="preserve">MFD00201</t>
   </si>
   <si>
+    <t xml:space="preserve">2018-11-26</t>
+  </si>
+  <si>
     <t xml:space="preserve">56.3694</t>
   </si>
   <si>
     <t xml:space="preserve">9.8979</t>
   </si>
   <si>
-    <t xml:space="preserve">agriculture, downstream fish farm</t>
+    <t xml:space="preserve">lilleå</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00202</t>
   </si>
   <si>
+    <t xml:space="preserve">2018-11-22</t>
+  </si>
+  <si>
     <t xml:space="preserve">56.1275934</t>
   </si>
   <si>
@@ -192,7 +204,7 @@
     <t xml:space="preserve">10.3733582</t>
   </si>
   <si>
-    <t xml:space="preserve">nordøst for kastrup</t>
+    <t xml:space="preserve">Alling Å</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00207</t>
@@ -222,13 +234,16 @@
     <t xml:space="preserve">MFD00209</t>
   </si>
   <si>
+    <t xml:space="preserve">2018-11-28</t>
+  </si>
+  <si>
     <t xml:space="preserve">56.8989608</t>
   </si>
   <si>
     <t xml:space="preserve">10.0722806</t>
   </si>
   <si>
-    <t xml:space="preserve">komdrup grøft, lindenborg å</t>
+    <t xml:space="preserve">Lindenborg å</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00210</t>
@@ -240,7 +255,7 @@
     <t xml:space="preserve">10.0823053</t>
   </si>
   <si>
-    <t xml:space="preserve">paderup enges landkanal</t>
+    <t xml:space="preserve">Randers fjord</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00211</t>
@@ -276,9 +291,6 @@
     <t xml:space="preserve">9.867686</t>
   </si>
   <si>
-    <t xml:space="preserve">råkilde, lindenborg å</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00216</t>
   </si>
   <si>
@@ -288,12 +300,12 @@
     <t xml:space="preserve">9.9412071</t>
   </si>
   <si>
-    <t xml:space="preserve">hølbæk, lindenborg å</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00217</t>
   </si>
   <si>
+    <t xml:space="preserve">2018-11-29</t>
+  </si>
+  <si>
     <t xml:space="preserve">56.8963431</t>
   </si>
   <si>
@@ -330,9 +342,6 @@
     <t xml:space="preserve">9.808939</t>
   </si>
   <si>
-    <t xml:space="preserve">kildebæk skellingbro, lindenborg å</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00223</t>
   </si>
   <si>
@@ -342,7 +351,7 @@
     <t xml:space="preserve">9.8156183</t>
   </si>
   <si>
-    <t xml:space="preserve">tingbæk møllebæk, lindenborg å</t>
+    <t xml:space="preserve">tingbæk møllebæk</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00224</t>
@@ -354,7 +363,7 @@
     <t xml:space="preserve">10.0370327</t>
   </si>
   <si>
-    <t xml:space="preserve">skibsted å, lindenborg å</t>
+    <t xml:space="preserve">skibsted å</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00226</t>
@@ -366,7 +375,7 @@
     <t xml:space="preserve">9.731801</t>
   </si>
   <si>
-    <t xml:space="preserve">døstrup bæk, simested å</t>
+    <t xml:space="preserve">døstrup bæk</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00227</t>
@@ -378,7 +387,7 @@
     <t xml:space="preserve">10.0005466</t>
   </si>
   <si>
-    <t xml:space="preserve">hede møle å</t>
+    <t xml:space="preserve">Gudenå</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00228</t>
@@ -402,6 +411,9 @@
     <t xml:space="preserve">12.1983</t>
   </si>
   <si>
+    <t xml:space="preserve">Hove Å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD01536</t>
   </si>
   <si>
@@ -414,6 +426,9 @@
     <t xml:space="preserve">10.2158</t>
   </si>
   <si>
+    <t xml:space="preserve">Odense å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03613</t>
   </si>
   <si>
@@ -426,6 +441,9 @@
     <t xml:space="preserve">12.5501</t>
   </si>
   <si>
+    <t xml:space="preserve">Ulvemoserenden</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04196</t>
   </si>
   <si>
@@ -456,6 +474,9 @@
     <t xml:space="preserve">10.8145</t>
   </si>
   <si>
+    <t xml:space="preserve">Tudserenden</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04226</t>
   </si>
   <si>
@@ -468,6 +489,9 @@
     <t xml:space="preserve">11.4225</t>
   </si>
   <si>
+    <t xml:space="preserve">Tude å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04236</t>
   </si>
   <si>
@@ -480,6 +504,9 @@
     <t xml:space="preserve">9.8802</t>
   </si>
   <si>
+    <t xml:space="preserve">Kærsmølle Å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04367</t>
   </si>
   <si>
@@ -489,6 +516,9 @@
     <t xml:space="preserve">9.8113</t>
   </si>
   <si>
+    <t xml:space="preserve">Tingbæk Møllebæk</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04369</t>
   </si>
   <si>
@@ -498,6 +528,9 @@
     <t xml:space="preserve">11.2948</t>
   </si>
   <si>
+    <t xml:space="preserve">Spegerborgrenden</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04379</t>
   </si>
   <si>
@@ -510,6 +543,9 @@
     <t xml:space="preserve">8.3329</t>
   </si>
   <si>
+    <t xml:space="preserve">Stadil Fjord</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04602</t>
   </si>
   <si>
@@ -519,6 +555,9 @@
     <t xml:space="preserve">11.3953</t>
   </si>
   <si>
+    <t xml:space="preserve">T.T. Basnæs nor</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04604</t>
   </si>
   <si>
@@ -531,6 +570,9 @@
     <t xml:space="preserve">9.5542</t>
   </si>
   <si>
+    <t xml:space="preserve">Haderslev Fjord</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04605</t>
   </si>
   <si>
@@ -543,6 +585,9 @@
     <t xml:space="preserve">9.747</t>
   </si>
   <si>
+    <t xml:space="preserve">Simested Å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04606</t>
   </si>
   <si>
@@ -552,6 +597,9 @@
     <t xml:space="preserve">9.5019</t>
   </si>
   <si>
+    <t xml:space="preserve">Grejs Å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04607</t>
   </si>
   <si>
@@ -564,6 +612,9 @@
     <t xml:space="preserve">9.9187</t>
   </si>
   <si>
+    <t xml:space="preserve">Østerå</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04609</t>
   </si>
   <si>
@@ -573,7 +624,7 @@
     <t xml:space="preserve">9.6735</t>
   </si>
   <si>
-    <t xml:space="preserve">simested å, v hannerup</t>
+    <t xml:space="preserve">Simested å</t>
   </si>
   <si>
     <t xml:space="preserve">MFD04611</t>
@@ -600,6 +651,9 @@
     <t xml:space="preserve">8.6535</t>
   </si>
   <si>
+    <t xml:space="preserve">Darum Bæk</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04616</t>
   </si>
   <si>
@@ -609,6 +663,9 @@
     <t xml:space="preserve">8.3433</t>
   </si>
   <si>
+    <t xml:space="preserve">Ringkøbing Fjord</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04617</t>
   </si>
   <si>
@@ -630,6 +687,9 @@
     <t xml:space="preserve">9.8066</t>
   </si>
   <si>
+    <t xml:space="preserve">Hasseris Å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04621</t>
   </si>
   <si>
@@ -651,6 +711,9 @@
     <t xml:space="preserve">12.346</t>
   </si>
   <si>
+    <t xml:space="preserve">T.T. Fakse Bugt</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04623</t>
   </si>
   <si>
@@ -660,6 +723,9 @@
     <t xml:space="preserve">11.8769</t>
   </si>
   <si>
+    <t xml:space="preserve">Fladså</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04625</t>
   </si>
   <si>
@@ -672,6 +738,9 @@
     <t xml:space="preserve">10.2277</t>
   </si>
   <si>
+    <t xml:space="preserve">Haslevgård Å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04626</t>
   </si>
   <si>
@@ -690,6 +759,9 @@
     <t xml:space="preserve">8.1314</t>
   </si>
   <si>
+    <t xml:space="preserve">Nissum Fjord</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04628</t>
   </si>
   <si>
@@ -699,6 +771,9 @@
     <t xml:space="preserve">9.2672</t>
   </si>
   <si>
+    <t xml:space="preserve">Vejle Å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04629</t>
   </si>
   <si>
@@ -708,6 +783,9 @@
     <t xml:space="preserve">12.0623</t>
   </si>
   <si>
+    <t xml:space="preserve">T.T. Ulvssund</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04631</t>
   </si>
   <si>
@@ -717,6 +795,9 @@
     <t xml:space="preserve">8.9133</t>
   </si>
   <si>
+    <t xml:space="preserve">Skjern Å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04632</t>
   </si>
   <si>
@@ -726,6 +807,9 @@
     <t xml:space="preserve">11.8057</t>
   </si>
   <si>
+    <t xml:space="preserve">Svinø Vig</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04635</t>
   </si>
   <si>
@@ -735,6 +819,9 @@
     <t xml:space="preserve">10.2665</t>
   </si>
   <si>
+    <t xml:space="preserve">Vejlbæk</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04637</t>
   </si>
   <si>
@@ -744,9 +831,18 @@
     <t xml:space="preserve">12.0997</t>
   </si>
   <si>
+    <t xml:space="preserve">T.T. Østersøen</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04639</t>
   </si>
   <si>
+    <t xml:space="preserve">55.9381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6277</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04640</t>
   </si>
   <si>
@@ -759,6 +855,9 @@
     <t xml:space="preserve">8.5774</t>
   </si>
   <si>
+    <t xml:space="preserve">Storå</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04643</t>
   </si>
   <si>
@@ -777,6 +876,9 @@
     <t xml:space="preserve">9.1215</t>
   </si>
   <si>
+    <t xml:space="preserve">Skjern å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04645</t>
   </si>
   <si>
@@ -786,6 +888,9 @@
     <t xml:space="preserve">10.1685</t>
   </si>
   <si>
+    <t xml:space="preserve">Østre Vasegrøft</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04646</t>
   </si>
   <si>
@@ -804,6 +909,9 @@
     <t xml:space="preserve">11.6166</t>
   </si>
   <si>
+    <t xml:space="preserve">Lammefjord</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04648</t>
   </si>
   <si>
@@ -816,16 +924,19 @@
     <t xml:space="preserve">9.9015</t>
   </si>
   <si>
+    <t xml:space="preserve">Ryå</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04649</t>
   </si>
   <si>
     <t xml:space="preserve">2021-06-04</t>
   </si>
   <si>
-    <t xml:space="preserve">56.3706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8226</t>
+    <t xml:space="preserve">56.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85097</t>
   </si>
   <si>
     <t xml:space="preserve">MFD04650</t>
@@ -840,6 +951,9 @@
     <t xml:space="preserve">9.9741</t>
   </si>
   <si>
+    <t xml:space="preserve">Liver Å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04651</t>
   </si>
   <si>
@@ -849,6 +963,9 @@
     <t xml:space="preserve">9.996</t>
   </si>
   <si>
+    <t xml:space="preserve">Århus Å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04652</t>
   </si>
   <si>
@@ -858,6 +975,9 @@
     <t xml:space="preserve">10.1001</t>
   </si>
   <si>
+    <t xml:space="preserve">Lindenborg Å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04653</t>
   </si>
   <si>
@@ -867,6 +987,9 @@
     <t xml:space="preserve">9.295</t>
   </si>
   <si>
+    <t xml:space="preserve">Åkær Å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04657</t>
   </si>
   <si>
@@ -876,6 +999,9 @@
     <t xml:space="preserve">12.0047</t>
   </si>
   <si>
+    <t xml:space="preserve">køge å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04661</t>
   </si>
   <si>
@@ -894,6 +1020,9 @@
     <t xml:space="preserve">9.0927</t>
   </si>
   <si>
+    <t xml:space="preserve">Sønderå</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04666</t>
   </si>
   <si>
@@ -903,6 +1032,9 @@
     <t xml:space="preserve">10.3634</t>
   </si>
   <si>
+    <t xml:space="preserve">Skærum å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04667</t>
   </si>
   <si>
@@ -912,6 +1044,9 @@
     <t xml:space="preserve">9.0907</t>
   </si>
   <si>
+    <t xml:space="preserve">Arnå</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04668</t>
   </si>
   <si>
@@ -939,6 +1074,9 @@
     <t xml:space="preserve">8.8594</t>
   </si>
   <si>
+    <t xml:space="preserve">Ribe Å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04671</t>
   </si>
   <si>
@@ -948,6 +1086,9 @@
     <t xml:space="preserve">11.5803</t>
   </si>
   <si>
+    <t xml:space="preserve">T.T. Sejerø Bugt</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04672</t>
   </si>
   <si>
@@ -957,6 +1098,9 @@
     <t xml:space="preserve">9.6827</t>
   </si>
   <si>
+    <t xml:space="preserve">Kås</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04673</t>
   </si>
   <si>
@@ -966,6 +1110,9 @@
     <t xml:space="preserve">11.8101</t>
   </si>
   <si>
+    <t xml:space="preserve">Øvre Suså</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04674</t>
   </si>
   <si>
@@ -975,6 +1122,9 @@
     <t xml:space="preserve">9.2496</t>
   </si>
   <si>
+    <t xml:space="preserve">Gram Å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04675</t>
   </si>
   <si>
@@ -993,13 +1143,19 @@
     <t xml:space="preserve">10.2928</t>
   </si>
   <si>
+    <t xml:space="preserve">Stavis Å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04677</t>
   </si>
   <si>
-    <t xml:space="preserve">56.4945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3252</t>
+    <t xml:space="preserve">56.4721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alling å</t>
   </si>
   <si>
     <t xml:space="preserve">MFD04678</t>
@@ -1029,6 +1185,9 @@
     <t xml:space="preserve">8.8015</t>
   </si>
   <si>
+    <t xml:space="preserve">Brede Å Vest</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04681</t>
   </si>
   <si>
@@ -1047,6 +1206,9 @@
     <t xml:space="preserve">12.0253</t>
   </si>
   <si>
+    <t xml:space="preserve">Køge å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04683</t>
   </si>
   <si>
@@ -1056,6 +1218,9 @@
     <t xml:space="preserve">11.9405</t>
   </si>
   <si>
+    <t xml:space="preserve">T.T. Guldborgsund</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04689</t>
   </si>
   <si>
@@ -1065,6 +1230,9 @@
     <t xml:space="preserve">11.876</t>
   </si>
   <si>
+    <t xml:space="preserve">Suså</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04690</t>
   </si>
   <si>
@@ -1077,19 +1245,19 @@
     <t xml:space="preserve">MFD04691</t>
   </si>
   <si>
-    <t xml:space="preserve">56.0128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7264</t>
+    <t xml:space="preserve">56.0059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7212</t>
   </si>
   <si>
     <t xml:space="preserve">MFD04693</t>
   </si>
   <si>
-    <t xml:space="preserve">56.3791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.04</t>
+    <t xml:space="preserve">56.39998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.02352</t>
   </si>
   <si>
     <t xml:space="preserve">MFD04694</t>
@@ -1110,6 +1278,9 @@
     <t xml:space="preserve">9.0468</t>
   </si>
   <si>
+    <t xml:space="preserve">Hjortvad Å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04697</t>
   </si>
   <si>
@@ -1128,6 +1299,9 @@
     <t xml:space="preserve">11.7497</t>
   </si>
   <si>
+    <t xml:space="preserve">Vasegrøft</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04699</t>
   </si>
   <si>
@@ -1137,22 +1311,28 @@
     <t xml:space="preserve">11.6934</t>
   </si>
   <si>
+    <t xml:space="preserve">Sakskøbing Å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04701</t>
   </si>
   <si>
-    <t xml:space="preserve">55.9444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7946</t>
+    <t xml:space="preserve">55.9445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.806</t>
   </si>
   <si>
     <t xml:space="preserve">MFD04704</t>
   </si>
   <si>
-    <t xml:space="preserve">55.8864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6175</t>
+    <t xml:space="preserve">55.9102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flensborg Fjord</t>
   </si>
   <si>
     <t xml:space="preserve">MFD04705</t>
@@ -1164,6 +1344,9 @@
     <t xml:space="preserve">9.8324</t>
   </si>
   <si>
+    <t xml:space="preserve">Als</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04706</t>
   </si>
   <si>
@@ -1173,6 +1356,9 @@
     <t xml:space="preserve">10.346</t>
   </si>
   <si>
+    <t xml:space="preserve">Elling Å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04707</t>
   </si>
   <si>
@@ -1182,6 +1368,9 @@
     <t xml:space="preserve">11.5157</t>
   </si>
   <si>
+    <t xml:space="preserve">Huse Å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04708</t>
   </si>
   <si>
@@ -1191,6 +1380,9 @@
     <t xml:space="preserve">8.4792</t>
   </si>
   <si>
+    <t xml:space="preserve">Kastet Å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04709</t>
   </si>
   <si>
@@ -1218,6 +1410,9 @@
     <t xml:space="preserve">12.0612</t>
   </si>
   <si>
+    <t xml:space="preserve">Stenkildebæk</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04718</t>
   </si>
   <si>
@@ -1227,6 +1422,9 @@
     <t xml:space="preserve">11.8608</t>
   </si>
   <si>
+    <t xml:space="preserve">Elverdamsåen</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD04721</t>
   </si>
   <si>
@@ -1254,6 +1452,9 @@
     <t xml:space="preserve">10.7893</t>
   </si>
   <si>
+    <t xml:space="preserve">Stokkebækken</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05031</t>
   </si>
   <si>
@@ -1263,6 +1464,9 @@
     <t xml:space="preserve">10.5207</t>
   </si>
   <si>
+    <t xml:space="preserve">Kæmpeå</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05633</t>
   </si>
   <si>
@@ -1275,6 +1479,9 @@
     <t xml:space="preserve">12.4992</t>
   </si>
   <si>
+    <t xml:space="preserve">Nive Å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD09467</t>
   </si>
   <si>
@@ -1284,6 +1491,9 @@
     <t xml:space="preserve">12.1808</t>
   </si>
   <si>
+    <t xml:space="preserve">Orebjerg Rende</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD09470</t>
   </si>
   <si>
@@ -1293,6 +1503,9 @@
     <t xml:space="preserve">12.3681</t>
   </si>
   <si>
+    <t xml:space="preserve">Esrum Å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD09509</t>
   </si>
   <si>
@@ -1302,6 +1515,9 @@
     <t xml:space="preserve">12.2988</t>
   </si>
   <si>
+    <t xml:space="preserve">Søborg Kanal</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD09536</t>
   </si>
   <si>
@@ -1311,6 +1527,9 @@
     <t xml:space="preserve">12.2111</t>
   </si>
   <si>
+    <t xml:space="preserve">Værebro Å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD09557</t>
   </si>
   <si>
@@ -1329,6 +1548,9 @@
     <t xml:space="preserve">10.4172</t>
   </si>
   <si>
+    <t xml:space="preserve">Hundstrup A</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD09619</t>
   </si>
   <si>
@@ -1341,6 +1563,9 @@
     <t xml:space="preserve">9.0256</t>
   </si>
   <si>
+    <t xml:space="preserve">Hoven Å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD09666</t>
   </si>
   <si>
@@ -1350,6 +1575,9 @@
     <t xml:space="preserve">10.739</t>
   </si>
   <si>
+    <t xml:space="preserve">Kongshøj Å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD09686</t>
   </si>
   <si>
@@ -1359,6 +1587,9 @@
     <t xml:space="preserve">10.14</t>
   </si>
   <si>
+    <t xml:space="preserve">Hattebækken</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD09704</t>
   </si>
   <si>
@@ -1389,6 +1620,9 @@
     <t xml:space="preserve">8.7631</t>
   </si>
   <si>
+    <t xml:space="preserve">Sneum Å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD09773</t>
   </si>
   <si>
@@ -1398,6 +1632,9 @@
     <t xml:space="preserve">8.4871</t>
   </si>
   <si>
+    <t xml:space="preserve">Grindsted-Varde Å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD09778</t>
   </si>
   <si>
@@ -1407,6 +1644,9 @@
     <t xml:space="preserve">12.4778</t>
   </si>
   <si>
+    <t xml:space="preserve">Harrestrup Å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD09812</t>
   </si>
   <si>
@@ -1419,6 +1659,9 @@
     <t xml:space="preserve">9.9831</t>
   </si>
   <si>
+    <t xml:space="preserve">Sønder Tranders</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD09830</t>
   </si>
   <si>
@@ -1437,6 +1680,9 @@
     <t xml:space="preserve">12.5382</t>
   </si>
   <si>
+    <t xml:space="preserve">Kighanerenden</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD09833</t>
   </si>
   <si>
@@ -1455,6 +1701,9 @@
     <t xml:space="preserve">12.5722</t>
   </si>
   <si>
+    <t xml:space="preserve">Lokkerens Bæk</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD09877</t>
   </si>
   <si>
@@ -1464,6 +1713,9 @@
     <t xml:space="preserve">12.224</t>
   </si>
   <si>
+    <t xml:space="preserve">Pole Å</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD09953</t>
   </si>
   <si>
@@ -1471,6 +1723,9 @@
   </si>
   <si>
     <t xml:space="preserve">12.322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Havelse Å</t>
   </si>
   <si>
     <t xml:space="preserve">Variable</t>
@@ -1546,17 +1801,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBCE0A8"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1576,11 +1826,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1955,7 +2204,7 @@
       <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="2"/>
       <c r="N2" t="s">
         <v>26</v>
       </c>
@@ -1968,13 +2217,13 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -1983,7 +2232,7 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -1997,26 +2246,26 @@
       <c r="L3" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="2"/>
       <c r="N3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -2025,7 +2274,7 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -2039,26 +2288,26 @@
       <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="2"/>
       <c r="N4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -2067,7 +2316,7 @@
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -2081,26 +2330,26 @@
       <c r="L5" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="2"/>
       <c r="N5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -2109,7 +2358,7 @@
         <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
@@ -2123,26 +2372,26 @@
       <c r="L6" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="2"/>
       <c r="N6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -2151,7 +2400,7 @@
         <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -2165,26 +2414,26 @@
       <c r="L7" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="2"/>
       <c r="N7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
@@ -2193,7 +2442,7 @@
         <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
@@ -2207,26 +2456,26 @@
       <c r="L8" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="2"/>
       <c r="N8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>52</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
@@ -2235,7 +2484,7 @@
         <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
@@ -2249,26 +2498,26 @@
       <c r="L9" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="2"/>
       <c r="N9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
@@ -2277,7 +2526,7 @@
         <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -2291,26 +2540,26 @@
       <c r="L10" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="3"/>
+      <c r="M10" s="2"/>
       <c r="N10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
@@ -2319,7 +2568,7 @@
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
@@ -2333,26 +2582,26 @@
       <c r="L11" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="2"/>
       <c r="N11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
@@ -2361,7 +2610,7 @@
         <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
@@ -2375,26 +2624,26 @@
       <c r="L12" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="3"/>
+      <c r="M12" s="2"/>
       <c r="N12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
@@ -2403,7 +2652,7 @@
         <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s">
         <v>22</v>
@@ -2417,26 +2666,26 @@
       <c r="L13" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="2"/>
       <c r="N13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -2445,7 +2694,7 @@
         <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
         <v>22</v>
@@ -2459,26 +2708,26 @@
       <c r="L14" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="3"/>
+      <c r="M14" s="2"/>
       <c r="N14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
@@ -2487,7 +2736,7 @@
         <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I15" t="s">
         <v>22</v>
@@ -2501,26 +2750,26 @@
       <c r="L15" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="3"/>
+      <c r="M15" s="2"/>
       <c r="N15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
@@ -2529,7 +2778,7 @@
         <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s">
         <v>22</v>
@@ -2543,26 +2792,26 @@
       <c r="L16" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="3"/>
+      <c r="M16" s="2"/>
       <c r="N16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
@@ -2571,7 +2820,7 @@
         <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
         <v>22</v>
@@ -2585,26 +2834,26 @@
       <c r="L17" t="s">
         <v>25</v>
       </c>
-      <c r="M17" s="3"/>
+      <c r="M17" s="2"/>
       <c r="N17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
@@ -2613,7 +2862,7 @@
         <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s">
         <v>22</v>
@@ -2627,26 +2876,26 @@
       <c r="L18" t="s">
         <v>25</v>
       </c>
-      <c r="M18" s="3"/>
+      <c r="M18" s="2"/>
       <c r="N18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2669,26 +2918,26 @@
       <c r="L19" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="3"/>
+      <c r="M19" s="2"/>
       <c r="N19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
@@ -2697,7 +2946,7 @@
         <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I20" t="s">
         <v>22</v>
@@ -2711,26 +2960,26 @@
       <c r="L20" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="3"/>
+      <c r="M20" s="2"/>
       <c r="N20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
@@ -2753,26 +3002,26 @@
       <c r="L21" t="s">
         <v>25</v>
       </c>
-      <c r="M21" s="3"/>
+      <c r="M21" s="2"/>
       <c r="N21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E22" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
@@ -2781,7 +3030,7 @@
         <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s">
         <v>22</v>
@@ -2795,26 +3044,26 @@
       <c r="L22" t="s">
         <v>25</v>
       </c>
-      <c r="M22" s="3"/>
+      <c r="M22" s="2"/>
       <c r="N22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
@@ -2823,7 +3072,7 @@
         <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I23" t="s">
         <v>22</v>
@@ -2837,26 +3086,26 @@
       <c r="L23" t="s">
         <v>25</v>
       </c>
-      <c r="M23" s="3"/>
+      <c r="M23" s="2"/>
       <c r="N23" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F24" t="s">
         <v>19</v>
@@ -2865,7 +3114,7 @@
         <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I24" t="s">
         <v>22</v>
@@ -2879,26 +3128,26 @@
       <c r="L24" t="s">
         <v>25</v>
       </c>
-      <c r="M24" s="3"/>
+      <c r="M24" s="2"/>
       <c r="N24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
@@ -2907,7 +3156,7 @@
         <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I25" t="s">
         <v>22</v>
@@ -2921,26 +3170,26 @@
       <c r="L25" t="s">
         <v>25</v>
       </c>
-      <c r="M25" s="3"/>
+      <c r="M25" s="2"/>
       <c r="N25" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
@@ -2949,7 +3198,7 @@
         <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I26" t="s">
         <v>22</v>
@@ -2963,14 +3212,14 @@
       <c r="L26" t="s">
         <v>25</v>
       </c>
-      <c r="M26" s="3"/>
+      <c r="M26" s="2"/>
       <c r="N26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -2979,10 +3228,10 @@
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F27" t="s">
         <v>19</v>
@@ -3005,26 +3254,26 @@
       <c r="L27" t="s">
         <v>25</v>
       </c>
-      <c r="M27" s="3"/>
+      <c r="M27" s="2"/>
       <c r="N27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
@@ -3032,7 +3281,9 @@
       <c r="G28" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" t="s">
+        <v>132</v>
+      </c>
       <c r="I28" t="s">
         <v>22</v>
       </c>
@@ -3045,26 +3296,26 @@
       <c r="L28" t="s">
         <v>25</v>
       </c>
-      <c r="M28" s="3"/>
+      <c r="M28" s="2"/>
       <c r="N28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F29" t="s">
         <v>19</v>
@@ -3072,7 +3323,9 @@
       <c r="G29" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" t="s">
+        <v>137</v>
+      </c>
       <c r="I29" t="s">
         <v>22</v>
       </c>
@@ -3085,26 +3338,26 @@
       <c r="L29" t="s">
         <v>25</v>
       </c>
-      <c r="M29" s="3"/>
+      <c r="M29" s="2"/>
       <c r="N29" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D30" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E30" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F30" t="s">
         <v>19</v>
@@ -3112,7 +3365,9 @@
       <c r="G30" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" t="s">
+        <v>142</v>
+      </c>
       <c r="I30" t="s">
         <v>22</v>
       </c>
@@ -3125,34 +3380,36 @@
       <c r="L30" t="s">
         <v>25</v>
       </c>
-      <c r="M30" s="3"/>
+      <c r="M30" s="2"/>
       <c r="N30" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" t="s">
         <v>137</v>
       </c>
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" t="s">
-        <v>139</v>
-      </c>
-      <c r="E31" t="s">
-        <v>140</v>
-      </c>
-      <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="2"/>
       <c r="I31" t="s">
         <v>22</v>
       </c>
@@ -3165,26 +3422,26 @@
       <c r="L31" t="s">
         <v>25</v>
       </c>
-      <c r="M31" s="3"/>
+      <c r="M31" s="2"/>
       <c r="N31" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E32" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F32" t="s">
         <v>19</v>
@@ -3192,7 +3449,9 @@
       <c r="G32" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" t="s">
+        <v>137</v>
+      </c>
       <c r="I32" t="s">
         <v>22</v>
       </c>
@@ -3205,26 +3464,26 @@
       <c r="L32" t="s">
         <v>25</v>
       </c>
-      <c r="M32" s="3"/>
+      <c r="M32" s="2"/>
       <c r="N32" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E33" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F33" t="s">
         <v>19</v>
@@ -3232,7 +3491,9 @@
       <c r="G33" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" t="s">
+        <v>153</v>
+      </c>
       <c r="I33" t="s">
         <v>22</v>
       </c>
@@ -3245,26 +3506,26 @@
       <c r="L33" t="s">
         <v>25</v>
       </c>
-      <c r="M33" s="3"/>
+      <c r="M33" s="2"/>
       <c r="N33" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D34" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E34" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F34" t="s">
         <v>19</v>
@@ -3272,7 +3533,9 @@
       <c r="G34" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" t="s">
+        <v>158</v>
+      </c>
       <c r="I34" t="s">
         <v>22</v>
       </c>
@@ -3285,26 +3548,26 @@
       <c r="L34" t="s">
         <v>25</v>
       </c>
-      <c r="M34" s="3"/>
+      <c r="M34" s="2"/>
       <c r="N34" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E35" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F35" t="s">
         <v>19</v>
@@ -3312,7 +3575,9 @@
       <c r="G35" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" t="s">
+        <v>163</v>
+      </c>
       <c r="I35" t="s">
         <v>22</v>
       </c>
@@ -3325,26 +3590,26 @@
       <c r="L35" t="s">
         <v>25</v>
       </c>
-      <c r="M35" s="3"/>
+      <c r="M35" s="2"/>
       <c r="N35" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D36" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E36" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F36" t="s">
         <v>19</v>
@@ -3352,7 +3617,9 @@
       <c r="G36" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" t="s">
+        <v>167</v>
+      </c>
       <c r="I36" t="s">
         <v>22</v>
       </c>
@@ -3365,26 +3632,26 @@
       <c r="L36" t="s">
         <v>25</v>
       </c>
-      <c r="M36" s="3"/>
+      <c r="M36" s="2"/>
       <c r="N36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D37" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E37" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
@@ -3392,7 +3659,9 @@
       <c r="G37" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" t="s">
+        <v>171</v>
+      </c>
       <c r="I37" t="s">
         <v>22</v>
       </c>
@@ -3405,26 +3674,26 @@
       <c r="L37" t="s">
         <v>25</v>
       </c>
-      <c r="M37" s="3"/>
+      <c r="M37" s="2"/>
       <c r="N37" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="D38" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="E38" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="F38" t="s">
         <v>19</v>
@@ -3432,7 +3701,9 @@
       <c r="G38" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" t="s">
+        <v>176</v>
+      </c>
       <c r="I38" t="s">
         <v>22</v>
       </c>
@@ -3445,26 +3716,26 @@
       <c r="L38" t="s">
         <v>25</v>
       </c>
-      <c r="M38" s="3"/>
+      <c r="M38" s="2"/>
       <c r="N38" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D39" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="E39" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="F39" t="s">
         <v>19</v>
@@ -3472,7 +3743,9 @@
       <c r="G39" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" t="s">
+        <v>180</v>
+      </c>
       <c r="I39" t="s">
         <v>22</v>
       </c>
@@ -3485,26 +3758,26 @@
       <c r="L39" t="s">
         <v>25</v>
       </c>
-      <c r="M39" s="3"/>
+      <c r="M39" s="2"/>
       <c r="N39" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D40" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="E40" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
@@ -3512,7 +3785,9 @@
       <c r="G40" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" t="s">
+        <v>185</v>
+      </c>
       <c r="I40" t="s">
         <v>22</v>
       </c>
@@ -3525,26 +3800,26 @@
       <c r="L40" t="s">
         <v>25</v>
       </c>
-      <c r="M40" s="3"/>
+      <c r="M40" s="2"/>
       <c r="N40" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="D41" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="E41" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="F41" t="s">
         <v>19</v>
@@ -3552,7 +3827,9 @@
       <c r="G41" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" t="s">
+        <v>190</v>
+      </c>
       <c r="I41" t="s">
         <v>22</v>
       </c>
@@ -3565,26 +3842,26 @@
       <c r="L41" t="s">
         <v>25</v>
       </c>
-      <c r="M41" s="3"/>
+      <c r="M41" s="2"/>
       <c r="N41" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D42" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="E42" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
@@ -3592,7 +3869,9 @@
       <c r="G42" t="s">
         <v>20</v>
       </c>
-      <c r="H42" s="2"/>
+      <c r="H42" t="s">
+        <v>194</v>
+      </c>
       <c r="I42" t="s">
         <v>22</v>
       </c>
@@ -3605,26 +3884,26 @@
       <c r="L42" t="s">
         <v>25</v>
       </c>
-      <c r="M42" s="3"/>
+      <c r="M42" s="2"/>
       <c r="N42" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="D43" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="E43" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="F43" t="s">
         <v>19</v>
@@ -3632,7 +3911,9 @@
       <c r="G43" t="s">
         <v>20</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43" t="s">
+        <v>199</v>
+      </c>
       <c r="I43" t="s">
         <v>22</v>
       </c>
@@ -3645,26 +3926,26 @@
       <c r="L43" t="s">
         <v>25</v>
       </c>
-      <c r="M43" s="3"/>
+      <c r="M43" s="2"/>
       <c r="N43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="D44" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="E44" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
@@ -3673,7 +3954,7 @@
         <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="I44" t="s">
         <v>22</v>
@@ -3687,26 +3968,26 @@
       <c r="L44" t="s">
         <v>25</v>
       </c>
-      <c r="M44" s="3"/>
+      <c r="M44" s="2"/>
       <c r="N44" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>204</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
         <v>187</v>
       </c>
-      <c r="B45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" t="s">
-        <v>173</v>
-      </c>
       <c r="D45" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="E45" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="F45" t="s">
         <v>19</v>
@@ -3715,7 +3996,7 @@
         <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
@@ -3729,26 +4010,26 @@
       <c r="L45" t="s">
         <v>25</v>
       </c>
-      <c r="M45" s="3"/>
+      <c r="M45" s="2"/>
       <c r="N45" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="D46" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="E46" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="F46" t="s">
         <v>19</v>
@@ -3756,7 +4037,9 @@
       <c r="G46" t="s">
         <v>20</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" t="s">
+        <v>212</v>
+      </c>
       <c r="I46" t="s">
         <v>22</v>
       </c>
@@ -3769,26 +4052,26 @@
       <c r="L46" t="s">
         <v>25</v>
       </c>
-      <c r="M46" s="3"/>
+      <c r="M46" s="2"/>
       <c r="N46" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="D47" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="E47" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="F47" t="s">
         <v>19</v>
@@ -3796,7 +4079,9 @@
       <c r="G47" t="s">
         <v>20</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" t="s">
+        <v>216</v>
+      </c>
       <c r="I47" t="s">
         <v>22</v>
       </c>
@@ -3809,26 +4094,26 @@
       <c r="L47" t="s">
         <v>25</v>
       </c>
-      <c r="M47" s="3"/>
+      <c r="M47" s="2"/>
       <c r="N47" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D48" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="E48" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
@@ -3836,7 +4121,9 @@
       <c r="G48" t="s">
         <v>20</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" t="s">
+        <v>171</v>
+      </c>
       <c r="I48" t="s">
         <v>22</v>
       </c>
@@ -3849,26 +4136,26 @@
       <c r="L48" t="s">
         <v>25</v>
       </c>
-      <c r="M48" s="3"/>
+      <c r="M48" s="2"/>
       <c r="N48" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="D49" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="E49" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="F49" t="s">
         <v>19</v>
@@ -3876,7 +4163,9 @@
       <c r="G49" t="s">
         <v>20</v>
       </c>
-      <c r="H49" s="2"/>
+      <c r="H49" t="s">
+        <v>224</v>
+      </c>
       <c r="I49" t="s">
         <v>22</v>
       </c>
@@ -3889,26 +4178,26 @@
       <c r="L49" t="s">
         <v>25</v>
       </c>
-      <c r="M49" s="3"/>
+      <c r="M49" s="2"/>
       <c r="N49" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D50" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="E50" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="F50" t="s">
         <v>19</v>
@@ -3916,7 +4205,9 @@
       <c r="G50" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50" t="s">
+        <v>124</v>
+      </c>
       <c r="I50" t="s">
         <v>22</v>
       </c>
@@ -3929,26 +4220,26 @@
       <c r="L50" t="s">
         <v>25</v>
       </c>
-      <c r="M50" s="3"/>
+      <c r="M50" s="2"/>
       <c r="N50" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="D51" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="E51" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="F51" t="s">
         <v>19</v>
@@ -3956,7 +4247,9 @@
       <c r="G51" t="s">
         <v>20</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" t="s">
+        <v>232</v>
+      </c>
       <c r="I51" t="s">
         <v>22</v>
       </c>
@@ -3969,26 +4262,26 @@
       <c r="L51" t="s">
         <v>25</v>
       </c>
-      <c r="M51" s="3"/>
+      <c r="M51" s="2"/>
       <c r="N51" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D52" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="E52" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
@@ -3996,7 +4289,9 @@
       <c r="G52" t="s">
         <v>20</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" t="s">
+        <v>236</v>
+      </c>
       <c r="I52" t="s">
         <v>22</v>
       </c>
@@ -4009,26 +4304,26 @@
       <c r="L52" t="s">
         <v>25</v>
       </c>
-      <c r="M52" s="3"/>
+      <c r="M52" s="2"/>
       <c r="N52" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="D53" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="E53" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
@@ -4036,7 +4331,9 @@
       <c r="G53" t="s">
         <v>20</v>
       </c>
-      <c r="H53" s="2"/>
+      <c r="H53" t="s">
+        <v>241</v>
+      </c>
       <c r="I53" t="s">
         <v>22</v>
       </c>
@@ -4049,26 +4346,26 @@
       <c r="L53" t="s">
         <v>25</v>
       </c>
-      <c r="M53" s="3"/>
+      <c r="M53" s="2"/>
       <c r="N53" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D54" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="E54" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="F54" t="s">
         <v>19</v>
@@ -4076,7 +4373,9 @@
       <c r="G54" t="s">
         <v>20</v>
       </c>
-      <c r="H54" s="2"/>
+      <c r="H54" t="s">
+        <v>171</v>
+      </c>
       <c r="I54" t="s">
         <v>22</v>
       </c>
@@ -4089,26 +4388,26 @@
       <c r="L54" t="s">
         <v>25</v>
       </c>
-      <c r="M54" s="3"/>
+      <c r="M54" s="2"/>
       <c r="N54" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="D55" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="E55" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="F55" t="s">
         <v>19</v>
@@ -4116,7 +4415,9 @@
       <c r="G55" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="2"/>
+      <c r="H55" t="s">
+        <v>248</v>
+      </c>
       <c r="I55" t="s">
         <v>22</v>
       </c>
@@ -4129,26 +4430,26 @@
       <c r="L55" t="s">
         <v>25</v>
       </c>
-      <c r="M55" s="3"/>
+      <c r="M55" s="2"/>
       <c r="N55" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D56" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="E56" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="F56" t="s">
         <v>19</v>
@@ -4156,7 +4457,9 @@
       <c r="G56" t="s">
         <v>20</v>
       </c>
-      <c r="H56" s="2"/>
+      <c r="H56" t="s">
+        <v>252</v>
+      </c>
       <c r="I56" t="s">
         <v>22</v>
       </c>
@@ -4169,26 +4472,26 @@
       <c r="L56" t="s">
         <v>25</v>
       </c>
-      <c r="M56" s="3"/>
+      <c r="M56" s="2"/>
       <c r="N56" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="D57" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="E57" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="F57" t="s">
         <v>19</v>
@@ -4196,7 +4499,9 @@
       <c r="G57" t="s">
         <v>20</v>
       </c>
-      <c r="H57" s="2"/>
+      <c r="H57" t="s">
+        <v>256</v>
+      </c>
       <c r="I57" t="s">
         <v>22</v>
       </c>
@@ -4209,26 +4514,26 @@
       <c r="L57" t="s">
         <v>25</v>
       </c>
-      <c r="M57" s="3"/>
+      <c r="M57" s="2"/>
       <c r="N57" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="D58" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="E58" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="F58" t="s">
         <v>19</v>
@@ -4236,7 +4541,9 @@
       <c r="G58" t="s">
         <v>20</v>
       </c>
-      <c r="H58" s="2"/>
+      <c r="H58" t="s">
+        <v>260</v>
+      </c>
       <c r="I58" t="s">
         <v>22</v>
       </c>
@@ -4249,26 +4556,26 @@
       <c r="L58" t="s">
         <v>25</v>
       </c>
-      <c r="M58" s="3"/>
+      <c r="M58" s="2"/>
       <c r="N58" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="D59" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="E59" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="F59" t="s">
         <v>19</v>
@@ -4276,7 +4583,9 @@
       <c r="G59" t="s">
         <v>20</v>
       </c>
-      <c r="H59" s="2"/>
+      <c r="H59" t="s">
+        <v>264</v>
+      </c>
       <c r="I59" t="s">
         <v>22</v>
       </c>
@@ -4289,26 +4598,26 @@
       <c r="L59" t="s">
         <v>25</v>
       </c>
-      <c r="M59" s="3"/>
+      <c r="M59" s="2"/>
       <c r="N59" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="D60" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="E60" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="F60" t="s">
         <v>19</v>
@@ -4316,7 +4625,9 @@
       <c r="G60" t="s">
         <v>20</v>
       </c>
-      <c r="H60" s="2"/>
+      <c r="H60" t="s">
+        <v>268</v>
+      </c>
       <c r="I60" t="s">
         <v>22</v>
       </c>
@@ -4329,26 +4640,26 @@
       <c r="L60" t="s">
         <v>25</v>
       </c>
-      <c r="M60" s="3"/>
+      <c r="M60" s="2"/>
       <c r="N60" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="D61" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="E61" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="F61" t="s">
         <v>19</v>
@@ -4356,7 +4667,9 @@
       <c r="G61" t="s">
         <v>20</v>
       </c>
-      <c r="H61" s="2"/>
+      <c r="H61" t="s">
+        <v>272</v>
+      </c>
       <c r="I61" t="s">
         <v>22</v>
       </c>
@@ -4369,30 +4682,36 @@
       <c r="L61" t="s">
         <v>25</v>
       </c>
-      <c r="M61" s="3"/>
+      <c r="M61" s="2"/>
       <c r="N61" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>162</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="D62" t="s">
+        <v>274</v>
+      </c>
+      <c r="E62" t="s">
+        <v>275</v>
+      </c>
       <c r="F62" t="s">
         <v>19</v>
       </c>
       <c r="G62" t="s">
         <v>20</v>
       </c>
-      <c r="H62" s="2"/>
+      <c r="H62" t="s">
+        <v>260</v>
+      </c>
       <c r="I62" t="s">
         <v>22</v>
       </c>
@@ -4405,26 +4724,26 @@
       <c r="L62" t="s">
         <v>25</v>
       </c>
-      <c r="M62" s="3"/>
+      <c r="M62" s="2"/>
       <c r="N62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="D63" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="E63" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="F63" t="s">
         <v>19</v>
@@ -4432,7 +4751,9 @@
       <c r="G63" t="s">
         <v>20</v>
       </c>
-      <c r="H63" s="2"/>
+      <c r="H63" t="s">
+        <v>280</v>
+      </c>
       <c r="I63" t="s">
         <v>22</v>
       </c>
@@ -4445,26 +4766,26 @@
       <c r="L63" t="s">
         <v>25</v>
       </c>
-      <c r="M63" s="3"/>
+      <c r="M63" s="2"/>
       <c r="N63" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D64" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="E64" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="F64" t="s">
         <v>19</v>
@@ -4472,7 +4793,9 @@
       <c r="G64" t="s">
         <v>20</v>
       </c>
-      <c r="H64" s="2"/>
+      <c r="H64" t="s">
+        <v>252</v>
+      </c>
       <c r="I64" t="s">
         <v>22</v>
       </c>
@@ -4485,26 +4808,26 @@
       <c r="L64" t="s">
         <v>25</v>
       </c>
-      <c r="M64" s="3"/>
+      <c r="M64" s="2"/>
       <c r="N64" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="D65" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="E65" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="F65" t="s">
         <v>19</v>
@@ -4512,7 +4835,9 @@
       <c r="G65" t="s">
         <v>20</v>
       </c>
-      <c r="H65" s="2"/>
+      <c r="H65" t="s">
+        <v>287</v>
+      </c>
       <c r="I65" t="s">
         <v>22</v>
       </c>
@@ -4525,26 +4850,26 @@
       <c r="L65" t="s">
         <v>25</v>
       </c>
-      <c r="M65" s="3"/>
+      <c r="M65" s="2"/>
       <c r="N65" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="D66" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="E66" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="F66" t="s">
         <v>19</v>
@@ -4552,7 +4877,9 @@
       <c r="G66" t="s">
         <v>20</v>
       </c>
-      <c r="H66" s="2"/>
+      <c r="H66" t="s">
+        <v>291</v>
+      </c>
       <c r="I66" t="s">
         <v>22</v>
       </c>
@@ -4565,26 +4892,26 @@
       <c r="L66" t="s">
         <v>25</v>
       </c>
-      <c r="M66" s="3"/>
+      <c r="M66" s="2"/>
       <c r="N66" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="D67" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="E67" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="F67" t="s">
         <v>19</v>
@@ -4592,7 +4919,9 @@
       <c r="G67" t="s">
         <v>20</v>
       </c>
-      <c r="H67" s="2"/>
+      <c r="H67" t="s">
+        <v>280</v>
+      </c>
       <c r="I67" t="s">
         <v>22</v>
       </c>
@@ -4605,26 +4934,26 @@
       <c r="L67" t="s">
         <v>25</v>
       </c>
-      <c r="M67" s="3"/>
+      <c r="M67" s="2"/>
       <c r="N67" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D68" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="E68" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="F68" t="s">
         <v>19</v>
@@ -4632,7 +4961,9 @@
       <c r="G68" t="s">
         <v>20</v>
       </c>
-      <c r="H68" s="2"/>
+      <c r="H68" t="s">
+        <v>298</v>
+      </c>
       <c r="I68" t="s">
         <v>22</v>
       </c>
@@ -4645,26 +4976,26 @@
       <c r="L68" t="s">
         <v>25</v>
       </c>
-      <c r="M68" s="3"/>
+      <c r="M68" s="2"/>
       <c r="N68" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="B69" t="s">
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="D69" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="E69" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="F69" t="s">
         <v>19</v>
@@ -4672,7 +5003,9 @@
       <c r="G69" t="s">
         <v>20</v>
       </c>
-      <c r="H69" s="2"/>
+      <c r="H69" t="s">
+        <v>303</v>
+      </c>
       <c r="I69" t="s">
         <v>22</v>
       </c>
@@ -4685,26 +5018,26 @@
       <c r="L69" t="s">
         <v>25</v>
       </c>
-      <c r="M69" s="3"/>
+      <c r="M69" s="2"/>
       <c r="N69" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="D70" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="E70" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="F70" t="s">
         <v>19</v>
@@ -4712,7 +5045,9 @@
       <c r="G70" t="s">
         <v>20</v>
       </c>
-      <c r="H70" s="2"/>
+      <c r="H70" t="s">
+        <v>124</v>
+      </c>
       <c r="I70" t="s">
         <v>22</v>
       </c>
@@ -4725,26 +5060,26 @@
       <c r="L70" t="s">
         <v>25</v>
       </c>
-      <c r="M70" s="3"/>
+      <c r="M70" s="2"/>
       <c r="N70" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="D71" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="E71" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="F71" t="s">
         <v>19</v>
@@ -4752,7 +5087,9 @@
       <c r="G71" t="s">
         <v>20</v>
       </c>
-      <c r="H71" s="2"/>
+      <c r="H71" t="s">
+        <v>312</v>
+      </c>
       <c r="I71" t="s">
         <v>22</v>
       </c>
@@ -4765,26 +5102,26 @@
       <c r="L71" t="s">
         <v>25</v>
       </c>
-      <c r="M71" s="3"/>
+      <c r="M71" s="2"/>
       <c r="N71" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="B72" t="s">
         <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="D72" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="E72" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="F72" t="s">
         <v>19</v>
@@ -4792,7 +5129,9 @@
       <c r="G72" t="s">
         <v>20</v>
       </c>
-      <c r="H72" s="2"/>
+      <c r="H72" t="s">
+        <v>316</v>
+      </c>
       <c r="I72" t="s">
         <v>22</v>
       </c>
@@ -4805,26 +5144,26 @@
       <c r="L72" t="s">
         <v>25</v>
       </c>
-      <c r="M72" s="3"/>
+      <c r="M72" s="2"/>
       <c r="N72" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D73" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="E73" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="F73" t="s">
         <v>19</v>
@@ -4832,7 +5171,9 @@
       <c r="G73" t="s">
         <v>20</v>
       </c>
-      <c r="H73" s="2"/>
+      <c r="H73" t="s">
+        <v>320</v>
+      </c>
       <c r="I73" t="s">
         <v>22</v>
       </c>
@@ -4845,26 +5186,26 @@
       <c r="L73" t="s">
         <v>25</v>
       </c>
-      <c r="M73" s="3"/>
+      <c r="M73" s="2"/>
       <c r="N73" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D74" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="E74" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="F74" t="s">
         <v>19</v>
@@ -4872,7 +5213,9 @@
       <c r="G74" t="s">
         <v>20</v>
       </c>
-      <c r="H74" s="2"/>
+      <c r="H74" t="s">
+        <v>324</v>
+      </c>
       <c r="I74" t="s">
         <v>22</v>
       </c>
@@ -4885,26 +5228,26 @@
       <c r="L74" t="s">
         <v>25</v>
       </c>
-      <c r="M74" s="3"/>
+      <c r="M74" s="2"/>
       <c r="N74" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="B75" t="s">
         <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="D75" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="E75" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="F75" t="s">
         <v>19</v>
@@ -4912,7 +5255,9 @@
       <c r="G75" t="s">
         <v>20</v>
       </c>
-      <c r="H75" s="2"/>
+      <c r="H75" t="s">
+        <v>328</v>
+      </c>
       <c r="I75" t="s">
         <v>22</v>
       </c>
@@ -4925,26 +5270,26 @@
       <c r="L75" t="s">
         <v>25</v>
       </c>
-      <c r="M75" s="3"/>
+      <c r="M75" s="2"/>
       <c r="N75" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="D76" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="E76" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="F76" t="s">
         <v>19</v>
@@ -4952,7 +5297,9 @@
       <c r="G76" t="s">
         <v>20</v>
       </c>
-      <c r="H76" s="2"/>
+      <c r="H76" t="s">
+        <v>303</v>
+      </c>
       <c r="I76" t="s">
         <v>22</v>
       </c>
@@ -4965,26 +5312,26 @@
       <c r="L76" t="s">
         <v>25</v>
       </c>
-      <c r="M76" s="3"/>
+      <c r="M76" s="2"/>
       <c r="N76" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="D77" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="E77" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
@@ -4992,7 +5339,9 @@
       <c r="G77" t="s">
         <v>20</v>
       </c>
-      <c r="H77" s="2"/>
+      <c r="H77" t="s">
+        <v>335</v>
+      </c>
       <c r="I77" t="s">
         <v>22</v>
       </c>
@@ -5005,26 +5354,26 @@
       <c r="L77" t="s">
         <v>25</v>
       </c>
-      <c r="M77" s="3"/>
+      <c r="M77" s="2"/>
       <c r="N77" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="D78" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="E78" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
@@ -5032,7 +5381,9 @@
       <c r="G78" t="s">
         <v>20</v>
       </c>
-      <c r="H78" s="2"/>
+      <c r="H78" t="s">
+        <v>339</v>
+      </c>
       <c r="I78" t="s">
         <v>22</v>
       </c>
@@ -5045,26 +5396,26 @@
       <c r="L78" t="s">
         <v>25</v>
       </c>
-      <c r="M78" s="3"/>
+      <c r="M78" s="2"/>
       <c r="N78" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="D79" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="E79" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
@@ -5072,7 +5423,9 @@
       <c r="G79" t="s">
         <v>20</v>
       </c>
-      <c r="H79" s="2"/>
+      <c r="H79" t="s">
+        <v>343</v>
+      </c>
       <c r="I79" t="s">
         <v>22</v>
       </c>
@@ -5085,26 +5438,26 @@
       <c r="L79" t="s">
         <v>25</v>
       </c>
-      <c r="M79" s="3"/>
+      <c r="M79" s="2"/>
       <c r="N79" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="D80" t="s">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="E80" t="s">
-        <v>301</v>
+        <v>346</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
@@ -5112,7 +5465,9 @@
       <c r="G80" t="s">
         <v>20</v>
       </c>
-      <c r="H80" s="2"/>
+      <c r="H80" t="s">
+        <v>260</v>
+      </c>
       <c r="I80" t="s">
         <v>22</v>
       </c>
@@ -5125,26 +5480,26 @@
       <c r="L80" t="s">
         <v>25</v>
       </c>
-      <c r="M80" s="3"/>
+      <c r="M80" s="2"/>
       <c r="N80" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>302</v>
+        <v>347</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D81" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="E81" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
@@ -5152,7 +5507,9 @@
       <c r="G81" t="s">
         <v>20</v>
       </c>
-      <c r="H81" s="2"/>
+      <c r="H81" t="s">
+        <v>252</v>
+      </c>
       <c r="I81" t="s">
         <v>22</v>
       </c>
@@ -5165,26 +5522,26 @@
       <c r="L81" t="s">
         <v>25</v>
       </c>
-      <c r="M81" s="3"/>
+      <c r="M81" s="2"/>
       <c r="N81" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="D82" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="E82" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
@@ -5192,7 +5549,9 @@
       <c r="G82" t="s">
         <v>20</v>
       </c>
-      <c r="H82" s="2"/>
+      <c r="H82" t="s">
+        <v>353</v>
+      </c>
       <c r="I82" t="s">
         <v>22</v>
       </c>
@@ -5205,26 +5564,26 @@
       <c r="L82" t="s">
         <v>25</v>
       </c>
-      <c r="M82" s="3"/>
+      <c r="M82" s="2"/>
       <c r="N82" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
       <c r="B83" t="s">
         <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D83" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="E83" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
@@ -5232,7 +5591,9 @@
       <c r="G83" t="s">
         <v>20</v>
       </c>
-      <c r="H83" s="2"/>
+      <c r="H83" t="s">
+        <v>357</v>
+      </c>
       <c r="I83" t="s">
         <v>22</v>
       </c>
@@ -5245,26 +5606,26 @@
       <c r="L83" t="s">
         <v>25</v>
       </c>
-      <c r="M83" s="3"/>
+      <c r="M83" s="2"/>
       <c r="N83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="D84" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="E84" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
@@ -5272,7 +5633,9 @@
       <c r="G84" t="s">
         <v>20</v>
       </c>
-      <c r="H84" s="2"/>
+      <c r="H84" t="s">
+        <v>361</v>
+      </c>
       <c r="I84" t="s">
         <v>22</v>
       </c>
@@ -5285,26 +5648,26 @@
       <c r="L84" t="s">
         <v>25</v>
       </c>
-      <c r="M84" s="3"/>
+      <c r="M84" s="2"/>
       <c r="N84" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>314</v>
+        <v>362</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D85" t="s">
-        <v>315</v>
+        <v>363</v>
       </c>
       <c r="E85" t="s">
-        <v>316</v>
+        <v>364</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
@@ -5312,7 +5675,9 @@
       <c r="G85" t="s">
         <v>20</v>
       </c>
-      <c r="H85" s="2"/>
+      <c r="H85" t="s">
+        <v>365</v>
+      </c>
       <c r="I85" t="s">
         <v>22</v>
       </c>
@@ -5325,26 +5690,26 @@
       <c r="L85" t="s">
         <v>25</v>
       </c>
-      <c r="M85" s="3"/>
+      <c r="M85" s="2"/>
       <c r="N85" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="B86" t="s">
         <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D86" t="s">
-        <v>318</v>
+        <v>367</v>
       </c>
       <c r="E86" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
@@ -5352,7 +5717,9 @@
       <c r="G86" t="s">
         <v>20</v>
       </c>
-      <c r="H86" s="2"/>
+      <c r="H86" t="s">
+        <v>369</v>
+      </c>
       <c r="I86" t="s">
         <v>22</v>
       </c>
@@ -5365,26 +5732,26 @@
       <c r="L86" t="s">
         <v>25</v>
       </c>
-      <c r="M86" s="3"/>
+      <c r="M86" s="2"/>
       <c r="N86" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="B87" t="s">
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D87" t="s">
-        <v>321</v>
+        <v>371</v>
       </c>
       <c r="E87" t="s">
-        <v>322</v>
+        <v>372</v>
       </c>
       <c r="F87" t="s">
         <v>19</v>
@@ -5392,7 +5759,9 @@
       <c r="G87" t="s">
         <v>20</v>
       </c>
-      <c r="H87" s="2"/>
+      <c r="H87" t="s">
+        <v>167</v>
+      </c>
       <c r="I87" t="s">
         <v>22</v>
       </c>
@@ -5405,26 +5774,26 @@
       <c r="L87" t="s">
         <v>25</v>
       </c>
-      <c r="M87" s="3"/>
+      <c r="M87" s="2"/>
       <c r="N87" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="B88" t="s">
         <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D88" t="s">
-        <v>324</v>
+        <v>374</v>
       </c>
       <c r="E88" t="s">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
@@ -5432,7 +5801,9 @@
       <c r="G88" t="s">
         <v>20</v>
       </c>
-      <c r="H88" s="2"/>
+      <c r="H88" t="s">
+        <v>376</v>
+      </c>
       <c r="I88" t="s">
         <v>22</v>
       </c>
@@ -5445,26 +5816,26 @@
       <c r="L88" t="s">
         <v>25</v>
       </c>
-      <c r="M88" s="3"/>
+      <c r="M88" s="2"/>
       <c r="N88" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="D89" t="s">
-        <v>327</v>
+        <v>378</v>
       </c>
       <c r="E89" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
@@ -5472,7 +5843,9 @@
       <c r="G89" t="s">
         <v>20</v>
       </c>
-      <c r="H89" s="2"/>
+      <c r="H89" t="s">
+        <v>380</v>
+      </c>
       <c r="I89" t="s">
         <v>22</v>
       </c>
@@ -5485,26 +5858,26 @@
       <c r="L89" t="s">
         <v>25</v>
       </c>
-      <c r="M89" s="3"/>
+      <c r="M89" s="2"/>
       <c r="N89" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>329</v>
+        <v>381</v>
       </c>
       <c r="B90" t="s">
         <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D90" t="s">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="E90" t="s">
-        <v>331</v>
+        <v>383</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
@@ -5512,7 +5885,9 @@
       <c r="G90" t="s">
         <v>20</v>
       </c>
-      <c r="H90" s="2"/>
+      <c r="H90" t="s">
+        <v>252</v>
+      </c>
       <c r="I90" t="s">
         <v>22</v>
       </c>
@@ -5525,26 +5900,26 @@
       <c r="L90" t="s">
         <v>25</v>
       </c>
-      <c r="M90" s="3"/>
+      <c r="M90" s="2"/>
       <c r="N90" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>332</v>
+        <v>384</v>
       </c>
       <c r="B91" t="s">
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="D91" t="s">
-        <v>333</v>
+        <v>385</v>
       </c>
       <c r="E91" t="s">
-        <v>334</v>
+        <v>386</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
@@ -5552,7 +5927,9 @@
       <c r="G91" t="s">
         <v>20</v>
       </c>
-      <c r="H91" s="2"/>
+      <c r="H91" t="s">
+        <v>124</v>
+      </c>
       <c r="I91" t="s">
         <v>22</v>
       </c>
@@ -5565,26 +5942,26 @@
       <c r="L91" t="s">
         <v>25</v>
       </c>
-      <c r="M91" s="3"/>
+      <c r="M91" s="2"/>
       <c r="N91" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>335</v>
+        <v>387</v>
       </c>
       <c r="B92" t="s">
         <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="D92" t="s">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="E92" t="s">
-        <v>337</v>
+        <v>389</v>
       </c>
       <c r="F92" t="s">
         <v>19</v>
@@ -5592,7 +5969,9 @@
       <c r="G92" t="s">
         <v>20</v>
       </c>
-      <c r="H92" s="2"/>
+      <c r="H92" t="s">
+        <v>390</v>
+      </c>
       <c r="I92" t="s">
         <v>22</v>
       </c>
@@ -5605,26 +5984,26 @@
       <c r="L92" t="s">
         <v>25</v>
       </c>
-      <c r="M92" s="3"/>
+      <c r="M92" s="2"/>
       <c r="N92" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>338</v>
+        <v>391</v>
       </c>
       <c r="B93" t="s">
         <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="D93" t="s">
-        <v>339</v>
+        <v>392</v>
       </c>
       <c r="E93" t="s">
-        <v>340</v>
+        <v>393</v>
       </c>
       <c r="F93" t="s">
         <v>19</v>
@@ -5632,7 +6011,9 @@
       <c r="G93" t="s">
         <v>20</v>
       </c>
-      <c r="H93" s="2"/>
+      <c r="H93" t="s">
+        <v>252</v>
+      </c>
       <c r="I93" t="s">
         <v>22</v>
       </c>
@@ -5645,26 +6026,26 @@
       <c r="L93" t="s">
         <v>25</v>
       </c>
-      <c r="M93" s="3"/>
+      <c r="M93" s="2"/>
       <c r="N93" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="B94" t="s">
         <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="D94" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="E94" t="s">
-        <v>343</v>
+        <v>396</v>
       </c>
       <c r="F94" t="s">
         <v>19</v>
@@ -5672,7 +6053,9 @@
       <c r="G94" t="s">
         <v>20</v>
       </c>
-      <c r="H94" s="2"/>
+      <c r="H94" t="s">
+        <v>397</v>
+      </c>
       <c r="I94" t="s">
         <v>22</v>
       </c>
@@ -5685,26 +6068,26 @@
       <c r="L94" t="s">
         <v>25</v>
       </c>
-      <c r="M94" s="3"/>
+      <c r="M94" s="2"/>
       <c r="N94" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>344</v>
+        <v>398</v>
       </c>
       <c r="B95" t="s">
         <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="D95" t="s">
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="E95" t="s">
-        <v>346</v>
+        <v>400</v>
       </c>
       <c r="F95" t="s">
         <v>19</v>
@@ -5712,7 +6095,9 @@
       <c r="G95" t="s">
         <v>20</v>
       </c>
-      <c r="H95" s="2"/>
+      <c r="H95" t="s">
+        <v>401</v>
+      </c>
       <c r="I95" t="s">
         <v>22</v>
       </c>
@@ -5725,26 +6110,26 @@
       <c r="L95" t="s">
         <v>25</v>
       </c>
-      <c r="M95" s="3"/>
+      <c r="M95" s="2"/>
       <c r="N95" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>347</v>
+        <v>402</v>
       </c>
       <c r="B96" t="s">
         <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D96" t="s">
-        <v>348</v>
+        <v>403</v>
       </c>
       <c r="E96" t="s">
-        <v>349</v>
+        <v>404</v>
       </c>
       <c r="F96" t="s">
         <v>19</v>
@@ -5752,7 +6137,9 @@
       <c r="G96" t="s">
         <v>20</v>
       </c>
-      <c r="H96" s="2"/>
+      <c r="H96" t="s">
+        <v>405</v>
+      </c>
       <c r="I96" t="s">
         <v>22</v>
       </c>
@@ -5765,26 +6152,26 @@
       <c r="L96" t="s">
         <v>25</v>
       </c>
-      <c r="M96" s="3"/>
+      <c r="M96" s="2"/>
       <c r="N96" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>350</v>
+        <v>406</v>
       </c>
       <c r="B97" t="s">
         <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="D97" t="s">
-        <v>351</v>
+        <v>407</v>
       </c>
       <c r="E97" t="s">
-        <v>352</v>
+        <v>408</v>
       </c>
       <c r="F97" t="s">
         <v>19</v>
@@ -5792,7 +6179,9 @@
       <c r="G97" t="s">
         <v>20</v>
       </c>
-      <c r="H97" s="2"/>
+      <c r="H97" t="s">
+        <v>287</v>
+      </c>
       <c r="I97" t="s">
         <v>22</v>
       </c>
@@ -5805,26 +6194,26 @@
       <c r="L97" t="s">
         <v>25</v>
       </c>
-      <c r="M97" s="3"/>
+      <c r="M97" s="2"/>
       <c r="N97" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>353</v>
+        <v>409</v>
       </c>
       <c r="B98" t="s">
         <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="D98" t="s">
-        <v>354</v>
+        <v>410</v>
       </c>
       <c r="E98" t="s">
-        <v>355</v>
+        <v>411</v>
       </c>
       <c r="F98" t="s">
         <v>19</v>
@@ -5832,7 +6221,9 @@
       <c r="G98" t="s">
         <v>20</v>
       </c>
-      <c r="H98" s="2"/>
+      <c r="H98" t="s">
+        <v>260</v>
+      </c>
       <c r="I98" t="s">
         <v>22</v>
       </c>
@@ -5845,26 +6236,26 @@
       <c r="L98" t="s">
         <v>25</v>
       </c>
-      <c r="M98" s="3"/>
+      <c r="M98" s="2"/>
       <c r="N98" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="B99" t="s">
         <v>15</v>
       </c>
       <c r="C99" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="D99" t="s">
-        <v>357</v>
+        <v>413</v>
       </c>
       <c r="E99" t="s">
-        <v>358</v>
+        <v>414</v>
       </c>
       <c r="F99" t="s">
         <v>19</v>
@@ -5872,7 +6263,9 @@
       <c r="G99" t="s">
         <v>20</v>
       </c>
-      <c r="H99" s="2"/>
+      <c r="H99" t="s">
+        <v>124</v>
+      </c>
       <c r="I99" t="s">
         <v>22</v>
       </c>
@@ -5885,26 +6278,26 @@
       <c r="L99" t="s">
         <v>25</v>
       </c>
-      <c r="M99" s="3"/>
+      <c r="M99" s="2"/>
       <c r="N99" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>359</v>
+        <v>415</v>
       </c>
       <c r="B100" t="s">
         <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="D100" t="s">
-        <v>360</v>
+        <v>416</v>
       </c>
       <c r="E100" t="s">
-        <v>361</v>
+        <v>417</v>
       </c>
       <c r="F100" t="s">
         <v>19</v>
@@ -5912,7 +6305,9 @@
       <c r="G100" t="s">
         <v>20</v>
       </c>
-      <c r="H100" s="2"/>
+      <c r="H100" t="s">
+        <v>124</v>
+      </c>
       <c r="I100" t="s">
         <v>22</v>
       </c>
@@ -5925,26 +6320,26 @@
       <c r="L100" t="s">
         <v>25</v>
       </c>
-      <c r="M100" s="3"/>
+      <c r="M100" s="2"/>
       <c r="N100" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>362</v>
+        <v>418</v>
       </c>
       <c r="B101" t="s">
         <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="D101" t="s">
-        <v>363</v>
+        <v>419</v>
       </c>
       <c r="E101" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
@@ -5952,7 +6347,9 @@
       <c r="G101" t="s">
         <v>20</v>
       </c>
-      <c r="H101" s="2"/>
+      <c r="H101" t="s">
+        <v>421</v>
+      </c>
       <c r="I101" t="s">
         <v>22</v>
       </c>
@@ -5965,26 +6362,26 @@
       <c r="L101" t="s">
         <v>25</v>
       </c>
-      <c r="M101" s="3"/>
+      <c r="M101" s="2"/>
       <c r="N101" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>365</v>
+        <v>422</v>
       </c>
       <c r="B102" t="s">
         <v>15</v>
       </c>
       <c r="C102" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="D102" t="s">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="E102" t="s">
-        <v>367</v>
+        <v>424</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
@@ -5992,7 +6389,9 @@
       <c r="G102" t="s">
         <v>20</v>
       </c>
-      <c r="H102" s="2"/>
+      <c r="H102" t="s">
+        <v>260</v>
+      </c>
       <c r="I102" t="s">
         <v>22</v>
       </c>
@@ -6005,26 +6404,26 @@
       <c r="L102" t="s">
         <v>25</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="2"/>
       <c r="N102" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>368</v>
+        <v>425</v>
       </c>
       <c r="B103" t="s">
         <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D103" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="E103" t="s">
-        <v>370</v>
+        <v>427</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
@@ -6032,7 +6431,9 @@
       <c r="G103" t="s">
         <v>20</v>
       </c>
-      <c r="H103" s="2"/>
+      <c r="H103" t="s">
+        <v>428</v>
+      </c>
       <c r="I103" t="s">
         <v>22</v>
       </c>
@@ -6045,26 +6446,26 @@
       <c r="L103" t="s">
         <v>25</v>
       </c>
-      <c r="M103" s="3"/>
+      <c r="M103" s="2"/>
       <c r="N103" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>371</v>
+        <v>429</v>
       </c>
       <c r="B104" t="s">
         <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="D104" t="s">
-        <v>372</v>
+        <v>430</v>
       </c>
       <c r="E104" t="s">
-        <v>373</v>
+        <v>431</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
@@ -6072,7 +6473,9 @@
       <c r="G104" t="s">
         <v>20</v>
       </c>
-      <c r="H104" s="2"/>
+      <c r="H104" t="s">
+        <v>432</v>
+      </c>
       <c r="I104" t="s">
         <v>22</v>
       </c>
@@ -6085,26 +6488,26 @@
       <c r="L104" t="s">
         <v>25</v>
       </c>
-      <c r="M104" s="3"/>
+      <c r="M104" s="2"/>
       <c r="N104" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>374</v>
+        <v>433</v>
       </c>
       <c r="B105" t="s">
         <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="D105" t="s">
-        <v>375</v>
+        <v>434</v>
       </c>
       <c r="E105" t="s">
-        <v>376</v>
+        <v>435</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
@@ -6112,7 +6515,9 @@
       <c r="G105" t="s">
         <v>20</v>
       </c>
-      <c r="H105" s="2"/>
+      <c r="H105" t="s">
+        <v>260</v>
+      </c>
       <c r="I105" t="s">
         <v>22</v>
       </c>
@@ -6125,26 +6530,26 @@
       <c r="L105" t="s">
         <v>25</v>
       </c>
-      <c r="M105" s="3"/>
+      <c r="M105" s="2"/>
       <c r="N105" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>377</v>
+        <v>436</v>
       </c>
       <c r="B106" t="s">
         <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="D106" t="s">
-        <v>378</v>
+        <v>437</v>
       </c>
       <c r="E106" t="s">
-        <v>379</v>
+        <v>438</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
@@ -6152,7 +6557,9 @@
       <c r="G106" t="s">
         <v>20</v>
       </c>
-      <c r="H106" s="2"/>
+      <c r="H106" t="s">
+        <v>439</v>
+      </c>
       <c r="I106" t="s">
         <v>22</v>
       </c>
@@ -6165,26 +6572,26 @@
       <c r="L106" t="s">
         <v>25</v>
       </c>
-      <c r="M106" s="3"/>
+      <c r="M106" s="2"/>
       <c r="N106" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>380</v>
+        <v>440</v>
       </c>
       <c r="B107" t="s">
         <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="D107" t="s">
-        <v>381</v>
+        <v>441</v>
       </c>
       <c r="E107" t="s">
-        <v>382</v>
+        <v>442</v>
       </c>
       <c r="F107" t="s">
         <v>19</v>
@@ -6192,7 +6599,9 @@
       <c r="G107" t="s">
         <v>20</v>
       </c>
-      <c r="H107" s="2"/>
+      <c r="H107" t="s">
+        <v>443</v>
+      </c>
       <c r="I107" t="s">
         <v>22</v>
       </c>
@@ -6205,26 +6614,26 @@
       <c r="L107" t="s">
         <v>25</v>
       </c>
-      <c r="M107" s="3"/>
+      <c r="M107" s="2"/>
       <c r="N107" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>383</v>
+        <v>444</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
       </c>
       <c r="C108" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="D108" t="s">
-        <v>384</v>
+        <v>445</v>
       </c>
       <c r="E108" t="s">
-        <v>385</v>
+        <v>446</v>
       </c>
       <c r="F108" t="s">
         <v>19</v>
@@ -6232,7 +6641,9 @@
       <c r="G108" t="s">
         <v>20</v>
       </c>
-      <c r="H108" s="2"/>
+      <c r="H108" t="s">
+        <v>447</v>
+      </c>
       <c r="I108" t="s">
         <v>22</v>
       </c>
@@ -6245,26 +6656,26 @@
       <c r="L108" t="s">
         <v>25</v>
       </c>
-      <c r="M108" s="3"/>
+      <c r="M108" s="2"/>
       <c r="N108" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>386</v>
+        <v>448</v>
       </c>
       <c r="B109" t="s">
         <v>15</v>
       </c>
       <c r="C109" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D109" t="s">
-        <v>387</v>
+        <v>449</v>
       </c>
       <c r="E109" t="s">
-        <v>388</v>
+        <v>450</v>
       </c>
       <c r="F109" t="s">
         <v>19</v>
@@ -6272,7 +6683,9 @@
       <c r="G109" t="s">
         <v>20</v>
       </c>
-      <c r="H109" s="2"/>
+      <c r="H109" t="s">
+        <v>451</v>
+      </c>
       <c r="I109" t="s">
         <v>22</v>
       </c>
@@ -6285,26 +6698,26 @@
       <c r="L109" t="s">
         <v>25</v>
       </c>
-      <c r="M109" s="3"/>
+      <c r="M109" s="2"/>
       <c r="N109" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>389</v>
+        <v>452</v>
       </c>
       <c r="B110" t="s">
         <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="D110" t="s">
-        <v>390</v>
+        <v>453</v>
       </c>
       <c r="E110" t="s">
-        <v>391</v>
+        <v>454</v>
       </c>
       <c r="F110" t="s">
         <v>19</v>
@@ -6312,7 +6725,9 @@
       <c r="G110" t="s">
         <v>20</v>
       </c>
-      <c r="H110" s="2"/>
+      <c r="H110" t="s">
+        <v>455</v>
+      </c>
       <c r="I110" t="s">
         <v>22</v>
       </c>
@@ -6325,26 +6740,26 @@
       <c r="L110" t="s">
         <v>25</v>
       </c>
-      <c r="M110" s="3"/>
+      <c r="M110" s="2"/>
       <c r="N110" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="B111" t="s">
         <v>15</v>
       </c>
       <c r="C111" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="D111" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="E111" t="s">
-        <v>394</v>
+        <v>458</v>
       </c>
       <c r="F111" t="s">
         <v>19</v>
@@ -6352,7 +6767,9 @@
       <c r="G111" t="s">
         <v>20</v>
       </c>
-      <c r="H111" s="2"/>
+      <c r="H111" t="s">
+        <v>124</v>
+      </c>
       <c r="I111" t="s">
         <v>22</v>
       </c>
@@ -6365,26 +6782,26 @@
       <c r="L111" t="s">
         <v>25</v>
       </c>
-      <c r="M111" s="3"/>
+      <c r="M111" s="2"/>
       <c r="N111" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>395</v>
+        <v>459</v>
       </c>
       <c r="B112" t="s">
         <v>15</v>
       </c>
       <c r="C112" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="D112" t="s">
-        <v>396</v>
+        <v>460</v>
       </c>
       <c r="E112" t="s">
-        <v>397</v>
+        <v>461</v>
       </c>
       <c r="F112" t="s">
         <v>19</v>
@@ -6392,7 +6809,9 @@
       <c r="G112" t="s">
         <v>20</v>
       </c>
-      <c r="H112" s="2"/>
+      <c r="H112" t="s">
+        <v>124</v>
+      </c>
       <c r="I112" t="s">
         <v>22</v>
       </c>
@@ -6405,26 +6824,26 @@
       <c r="L112" t="s">
         <v>25</v>
       </c>
-      <c r="M112" s="3"/>
+      <c r="M112" s="2"/>
       <c r="N112" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>398</v>
+        <v>462</v>
       </c>
       <c r="B113" t="s">
         <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="D113" t="s">
-        <v>399</v>
+        <v>463</v>
       </c>
       <c r="E113" t="s">
-        <v>400</v>
+        <v>464</v>
       </c>
       <c r="F113" t="s">
         <v>19</v>
@@ -6432,7 +6851,9 @@
       <c r="G113" t="s">
         <v>20</v>
       </c>
-      <c r="H113" s="2"/>
+      <c r="H113" t="s">
+        <v>465</v>
+      </c>
       <c r="I113" t="s">
         <v>22</v>
       </c>
@@ -6445,26 +6866,26 @@
       <c r="L113" t="s">
         <v>25</v>
       </c>
-      <c r="M113" s="3"/>
+      <c r="M113" s="2"/>
       <c r="N113" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>401</v>
+        <v>466</v>
       </c>
       <c r="B114" t="s">
         <v>15</v>
       </c>
       <c r="C114" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="D114" t="s">
-        <v>402</v>
+        <v>467</v>
       </c>
       <c r="E114" t="s">
-        <v>403</v>
+        <v>468</v>
       </c>
       <c r="F114" t="s">
         <v>19</v>
@@ -6472,7 +6893,9 @@
       <c r="G114" t="s">
         <v>20</v>
       </c>
-      <c r="H114" s="2"/>
+      <c r="H114" t="s">
+        <v>469</v>
+      </c>
       <c r="I114" t="s">
         <v>22</v>
       </c>
@@ -6485,26 +6908,26 @@
       <c r="L114" t="s">
         <v>25</v>
       </c>
-      <c r="M114" s="3"/>
+      <c r="M114" s="2"/>
       <c r="N114" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>404</v>
+        <v>470</v>
       </c>
       <c r="B115" t="s">
         <v>15</v>
       </c>
       <c r="C115" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D115" t="s">
-        <v>405</v>
+        <v>471</v>
       </c>
       <c r="E115" t="s">
-        <v>406</v>
+        <v>472</v>
       </c>
       <c r="F115" t="s">
         <v>19</v>
@@ -6512,7 +6935,9 @@
       <c r="G115" t="s">
         <v>20</v>
       </c>
-      <c r="H115" s="2"/>
+      <c r="H115" t="s">
+        <v>158</v>
+      </c>
       <c r="I115" t="s">
         <v>22</v>
       </c>
@@ -6525,26 +6950,26 @@
       <c r="L115" t="s">
         <v>25</v>
       </c>
-      <c r="M115" s="3"/>
+      <c r="M115" s="2"/>
       <c r="N115" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>407</v>
+        <v>473</v>
       </c>
       <c r="B116" t="s">
         <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D116" t="s">
-        <v>408</v>
+        <v>474</v>
       </c>
       <c r="E116" t="s">
-        <v>409</v>
+        <v>475</v>
       </c>
       <c r="F116" t="s">
         <v>19</v>
@@ -6552,7 +6977,9 @@
       <c r="G116" t="s">
         <v>20</v>
       </c>
-      <c r="H116" s="2"/>
+      <c r="H116" t="s">
+        <v>158</v>
+      </c>
       <c r="I116" t="s">
         <v>22</v>
       </c>
@@ -6565,26 +6992,26 @@
       <c r="L116" t="s">
         <v>25</v>
       </c>
-      <c r="M116" s="3"/>
+      <c r="M116" s="2"/>
       <c r="N116" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>410</v>
+        <v>476</v>
       </c>
       <c r="B117" t="s">
         <v>15</v>
       </c>
       <c r="C117" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D117" t="s">
-        <v>411</v>
+        <v>477</v>
       </c>
       <c r="E117" t="s">
-        <v>412</v>
+        <v>478</v>
       </c>
       <c r="F117" t="s">
         <v>19</v>
@@ -6592,7 +7019,9 @@
       <c r="G117" t="s">
         <v>20</v>
       </c>
-      <c r="H117" s="2"/>
+      <c r="H117" t="s">
+        <v>479</v>
+      </c>
       <c r="I117" t="s">
         <v>22</v>
       </c>
@@ -6605,26 +7034,26 @@
       <c r="L117" t="s">
         <v>25</v>
       </c>
-      <c r="M117" s="3"/>
+      <c r="M117" s="2"/>
       <c r="N117" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>413</v>
+        <v>480</v>
       </c>
       <c r="B118" t="s">
         <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D118" t="s">
-        <v>414</v>
+        <v>481</v>
       </c>
       <c r="E118" t="s">
-        <v>415</v>
+        <v>482</v>
       </c>
       <c r="F118" t="s">
         <v>19</v>
@@ -6632,7 +7061,9 @@
       <c r="G118" t="s">
         <v>20</v>
       </c>
-      <c r="H118" s="2"/>
+      <c r="H118" t="s">
+        <v>483</v>
+      </c>
       <c r="I118" t="s">
         <v>22</v>
       </c>
@@ -6645,26 +7076,26 @@
       <c r="L118" t="s">
         <v>25</v>
       </c>
-      <c r="M118" s="3"/>
+      <c r="M118" s="2"/>
       <c r="N118" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>416</v>
+        <v>484</v>
       </c>
       <c r="B119" t="s">
         <v>15</v>
       </c>
       <c r="C119" t="s">
-        <v>417</v>
+        <v>485</v>
       </c>
       <c r="D119" t="s">
-        <v>418</v>
+        <v>486</v>
       </c>
       <c r="E119" t="s">
-        <v>419</v>
+        <v>487</v>
       </c>
       <c r="F119" t="s">
         <v>19</v>
@@ -6672,7 +7103,9 @@
       <c r="G119" t="s">
         <v>20</v>
       </c>
-      <c r="H119" s="2"/>
+      <c r="H119" t="s">
+        <v>488</v>
+      </c>
       <c r="I119" t="s">
         <v>22</v>
       </c>
@@ -6685,26 +7118,26 @@
       <c r="L119" t="s">
         <v>25</v>
       </c>
-      <c r="M119" s="3"/>
+      <c r="M119" s="2"/>
       <c r="N119" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>420</v>
+        <v>489</v>
       </c>
       <c r="B120" t="s">
         <v>15</v>
       </c>
       <c r="C120" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D120" t="s">
-        <v>421</v>
+        <v>490</v>
       </c>
       <c r="E120" t="s">
-        <v>422</v>
+        <v>491</v>
       </c>
       <c r="F120" t="s">
         <v>19</v>
@@ -6712,7 +7145,9 @@
       <c r="G120" t="s">
         <v>20</v>
       </c>
-      <c r="H120" s="2"/>
+      <c r="H120" t="s">
+        <v>492</v>
+      </c>
       <c r="I120" t="s">
         <v>22</v>
       </c>
@@ -6725,26 +7160,26 @@
       <c r="L120" t="s">
         <v>25</v>
       </c>
-      <c r="M120" s="3"/>
+      <c r="M120" s="2"/>
       <c r="N120" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>423</v>
+        <v>493</v>
       </c>
       <c r="B121" t="s">
         <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>417</v>
+        <v>485</v>
       </c>
       <c r="D121" t="s">
-        <v>424</v>
+        <v>494</v>
       </c>
       <c r="E121" t="s">
-        <v>425</v>
+        <v>495</v>
       </c>
       <c r="F121" t="s">
         <v>19</v>
@@ -6752,7 +7187,9 @@
       <c r="G121" t="s">
         <v>20</v>
       </c>
-      <c r="H121" s="2"/>
+      <c r="H121" t="s">
+        <v>496</v>
+      </c>
       <c r="I121" t="s">
         <v>22</v>
       </c>
@@ -6765,26 +7202,26 @@
       <c r="L121" t="s">
         <v>25</v>
       </c>
-      <c r="M121" s="3"/>
+      <c r="M121" s="2"/>
       <c r="N121" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>426</v>
+        <v>497</v>
       </c>
       <c r="B122" t="s">
         <v>15</v>
       </c>
       <c r="C122" t="s">
-        <v>417</v>
+        <v>485</v>
       </c>
       <c r="D122" t="s">
-        <v>427</v>
+        <v>498</v>
       </c>
       <c r="E122" t="s">
-        <v>428</v>
+        <v>499</v>
       </c>
       <c r="F122" t="s">
         <v>19</v>
@@ -6792,7 +7229,9 @@
       <c r="G122" t="s">
         <v>20</v>
       </c>
-      <c r="H122" s="2"/>
+      <c r="H122" t="s">
+        <v>500</v>
+      </c>
       <c r="I122" t="s">
         <v>22</v>
       </c>
@@ -6805,26 +7244,26 @@
       <c r="L122" t="s">
         <v>25</v>
       </c>
-      <c r="M122" s="3"/>
+      <c r="M122" s="2"/>
       <c r="N122" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>429</v>
+        <v>501</v>
       </c>
       <c r="B123" t="s">
         <v>15</v>
       </c>
       <c r="C123" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D123" t="s">
-        <v>430</v>
+        <v>502</v>
       </c>
       <c r="E123" t="s">
-        <v>431</v>
+        <v>503</v>
       </c>
       <c r="F123" t="s">
         <v>19</v>
@@ -6832,7 +7271,9 @@
       <c r="G123" t="s">
         <v>20</v>
       </c>
-      <c r="H123" s="2"/>
+      <c r="H123" t="s">
+        <v>504</v>
+      </c>
       <c r="I123" t="s">
         <v>22</v>
       </c>
@@ -6845,26 +7286,26 @@
       <c r="L123" t="s">
         <v>25</v>
       </c>
-      <c r="M123" s="3"/>
+      <c r="M123" s="2"/>
       <c r="N123" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>432</v>
+        <v>505</v>
       </c>
       <c r="B124" t="s">
         <v>15</v>
       </c>
       <c r="C124" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D124" t="s">
-        <v>433</v>
+        <v>506</v>
       </c>
       <c r="E124" t="s">
-        <v>434</v>
+        <v>507</v>
       </c>
       <c r="F124" t="s">
         <v>19</v>
@@ -6872,7 +7313,9 @@
       <c r="G124" t="s">
         <v>20</v>
       </c>
-      <c r="H124" s="2"/>
+      <c r="H124" t="s">
+        <v>504</v>
+      </c>
       <c r="I124" t="s">
         <v>22</v>
       </c>
@@ -6885,26 +7328,26 @@
       <c r="L124" t="s">
         <v>25</v>
       </c>
-      <c r="M124" s="3"/>
+      <c r="M124" s="2"/>
       <c r="N124" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>435</v>
+        <v>508</v>
       </c>
       <c r="B125" t="s">
         <v>15</v>
       </c>
       <c r="C125" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D125" t="s">
-        <v>436</v>
+        <v>509</v>
       </c>
       <c r="E125" t="s">
-        <v>437</v>
+        <v>510</v>
       </c>
       <c r="F125" t="s">
         <v>19</v>
@@ -6912,7 +7355,9 @@
       <c r="G125" t="s">
         <v>20</v>
       </c>
-      <c r="H125" s="2"/>
+      <c r="H125" t="s">
+        <v>511</v>
+      </c>
       <c r="I125" t="s">
         <v>22</v>
       </c>
@@ -6925,26 +7370,26 @@
       <c r="L125" t="s">
         <v>25</v>
       </c>
-      <c r="M125" s="3"/>
+      <c r="M125" s="2"/>
       <c r="N125" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>438</v>
+        <v>512</v>
       </c>
       <c r="B126" t="s">
         <v>15</v>
       </c>
       <c r="C126" t="s">
-        <v>439</v>
+        <v>513</v>
       </c>
       <c r="D126" t="s">
-        <v>440</v>
+        <v>514</v>
       </c>
       <c r="E126" t="s">
-        <v>441</v>
+        <v>515</v>
       </c>
       <c r="F126" t="s">
         <v>19</v>
@@ -6952,7 +7397,9 @@
       <c r="G126" t="s">
         <v>20</v>
       </c>
-      <c r="H126" s="2"/>
+      <c r="H126" t="s">
+        <v>516</v>
+      </c>
       <c r="I126" t="s">
         <v>22</v>
       </c>
@@ -6965,26 +7412,26 @@
       <c r="L126" t="s">
         <v>25</v>
       </c>
-      <c r="M126" s="3"/>
+      <c r="M126" s="2"/>
       <c r="N126" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>442</v>
+        <v>517</v>
       </c>
       <c r="B127" t="s">
         <v>15</v>
       </c>
       <c r="C127" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D127" t="s">
-        <v>443</v>
+        <v>518</v>
       </c>
       <c r="E127" t="s">
-        <v>444</v>
+        <v>519</v>
       </c>
       <c r="F127" t="s">
         <v>19</v>
@@ -6992,7 +7439,9 @@
       <c r="G127" t="s">
         <v>20</v>
       </c>
-      <c r="H127" s="2"/>
+      <c r="H127" t="s">
+        <v>520</v>
+      </c>
       <c r="I127" t="s">
         <v>22</v>
       </c>
@@ -7005,26 +7454,26 @@
       <c r="L127" t="s">
         <v>25</v>
       </c>
-      <c r="M127" s="3"/>
+      <c r="M127" s="2"/>
       <c r="N127" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>445</v>
+        <v>521</v>
       </c>
       <c r="B128" t="s">
         <v>15</v>
       </c>
       <c r="C128" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D128" t="s">
-        <v>446</v>
+        <v>522</v>
       </c>
       <c r="E128" t="s">
-        <v>447</v>
+        <v>523</v>
       </c>
       <c r="F128" t="s">
         <v>19</v>
@@ -7032,7 +7481,9 @@
       <c r="G128" t="s">
         <v>20</v>
       </c>
-      <c r="H128" s="2"/>
+      <c r="H128" t="s">
+        <v>524</v>
+      </c>
       <c r="I128" t="s">
         <v>22</v>
       </c>
@@ -7045,26 +7496,26 @@
       <c r="L128" t="s">
         <v>25</v>
       </c>
-      <c r="M128" s="3"/>
+      <c r="M128" s="2"/>
       <c r="N128" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>448</v>
+        <v>525</v>
       </c>
       <c r="B129" t="s">
         <v>15</v>
       </c>
       <c r="C129" t="s">
-        <v>449</v>
+        <v>526</v>
       </c>
       <c r="D129" t="s">
-        <v>450</v>
+        <v>527</v>
       </c>
       <c r="E129" t="s">
-        <v>451</v>
+        <v>528</v>
       </c>
       <c r="F129" t="s">
         <v>19</v>
@@ -7072,7 +7523,9 @@
       <c r="G129" t="s">
         <v>20</v>
       </c>
-      <c r="H129" s="2"/>
+      <c r="H129" t="s">
+        <v>390</v>
+      </c>
       <c r="I129" t="s">
         <v>22</v>
       </c>
@@ -7085,26 +7538,26 @@
       <c r="L129" t="s">
         <v>25</v>
       </c>
-      <c r="M129" s="3"/>
+      <c r="M129" s="2"/>
       <c r="N129" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>452</v>
+        <v>529</v>
       </c>
       <c r="B130" t="s">
         <v>15</v>
       </c>
       <c r="C130" t="s">
-        <v>417</v>
+        <v>485</v>
       </c>
       <c r="D130" t="s">
-        <v>453</v>
+        <v>530</v>
       </c>
       <c r="E130" t="s">
-        <v>454</v>
+        <v>531</v>
       </c>
       <c r="F130" t="s">
         <v>19</v>
@@ -7112,7 +7565,9 @@
       <c r="G130" t="s">
         <v>20</v>
       </c>
-      <c r="H130" s="2"/>
+      <c r="H130" t="s">
+        <v>496</v>
+      </c>
       <c r="I130" t="s">
         <v>22</v>
       </c>
@@ -7125,26 +7580,26 @@
       <c r="L130" t="s">
         <v>25</v>
       </c>
-      <c r="M130" s="3"/>
+      <c r="M130" s="2"/>
       <c r="N130" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>455</v>
+        <v>532</v>
       </c>
       <c r="B131" t="s">
         <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>449</v>
+        <v>526</v>
       </c>
       <c r="D131" t="s">
-        <v>456</v>
+        <v>533</v>
       </c>
       <c r="E131" t="s">
-        <v>457</v>
+        <v>534</v>
       </c>
       <c r="F131" t="s">
         <v>19</v>
@@ -7152,7 +7607,9 @@
       <c r="G131" t="s">
         <v>20</v>
       </c>
-      <c r="H131" s="2"/>
+      <c r="H131" t="s">
+        <v>535</v>
+      </c>
       <c r="I131" t="s">
         <v>22</v>
       </c>
@@ -7165,26 +7622,26 @@
       <c r="L131" t="s">
         <v>25</v>
       </c>
-      <c r="M131" s="3"/>
+      <c r="M131" s="2"/>
       <c r="N131" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>458</v>
+        <v>536</v>
       </c>
       <c r="B132" t="s">
         <v>15</v>
       </c>
       <c r="C132" t="s">
-        <v>449</v>
+        <v>526</v>
       </c>
       <c r="D132" t="s">
-        <v>459</v>
+        <v>537</v>
       </c>
       <c r="E132" t="s">
-        <v>460</v>
+        <v>538</v>
       </c>
       <c r="F132" t="s">
         <v>19</v>
@@ -7192,7 +7649,9 @@
       <c r="G132" t="s">
         <v>20</v>
       </c>
-      <c r="H132" s="2"/>
+      <c r="H132" t="s">
+        <v>539</v>
+      </c>
       <c r="I132" t="s">
         <v>22</v>
       </c>
@@ -7205,26 +7664,26 @@
       <c r="L132" t="s">
         <v>25</v>
       </c>
-      <c r="M132" s="3"/>
+      <c r="M132" s="2"/>
       <c r="N132" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>461</v>
+        <v>540</v>
       </c>
       <c r="B133" t="s">
         <v>15</v>
       </c>
       <c r="C133" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D133" t="s">
-        <v>462</v>
+        <v>541</v>
       </c>
       <c r="E133" t="s">
-        <v>463</v>
+        <v>542</v>
       </c>
       <c r="F133" t="s">
         <v>19</v>
@@ -7232,7 +7691,9 @@
       <c r="G133" t="s">
         <v>20</v>
       </c>
-      <c r="H133" s="2"/>
+      <c r="H133" t="s">
+        <v>543</v>
+      </c>
       <c r="I133" t="s">
         <v>22</v>
       </c>
@@ -7245,26 +7706,26 @@
       <c r="L133" t="s">
         <v>25</v>
       </c>
-      <c r="M133" s="3"/>
+      <c r="M133" s="2"/>
       <c r="N133" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>464</v>
+        <v>544</v>
       </c>
       <c r="B134" t="s">
         <v>15</v>
       </c>
       <c r="C134" t="s">
-        <v>465</v>
+        <v>545</v>
       </c>
       <c r="D134" t="s">
-        <v>466</v>
+        <v>546</v>
       </c>
       <c r="E134" t="s">
-        <v>467</v>
+        <v>547</v>
       </c>
       <c r="F134" t="s">
         <v>19</v>
@@ -7272,7 +7733,9 @@
       <c r="G134" t="s">
         <v>20</v>
       </c>
-      <c r="H134" s="2"/>
+      <c r="H134" t="s">
+        <v>548</v>
+      </c>
       <c r="I134" t="s">
         <v>22</v>
       </c>
@@ -7285,26 +7748,26 @@
       <c r="L134" t="s">
         <v>25</v>
       </c>
-      <c r="M134" s="3"/>
+      <c r="M134" s="2"/>
       <c r="N134" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>468</v>
+        <v>549</v>
       </c>
       <c r="B135" t="s">
         <v>15</v>
       </c>
       <c r="C135" t="s">
-        <v>449</v>
+        <v>526</v>
       </c>
       <c r="D135" t="s">
-        <v>469</v>
+        <v>550</v>
       </c>
       <c r="E135" t="s">
-        <v>470</v>
+        <v>551</v>
       </c>
       <c r="F135" t="s">
         <v>19</v>
@@ -7312,7 +7775,9 @@
       <c r="G135" t="s">
         <v>20</v>
       </c>
-      <c r="H135" s="2"/>
+      <c r="H135" t="s">
+        <v>539</v>
+      </c>
       <c r="I135" t="s">
         <v>22</v>
       </c>
@@ -7325,26 +7790,26 @@
       <c r="L135" t="s">
         <v>25</v>
       </c>
-      <c r="M135" s="3"/>
+      <c r="M135" s="2"/>
       <c r="N135" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>471</v>
+        <v>552</v>
       </c>
       <c r="B136" t="s">
         <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D136" t="s">
-        <v>472</v>
+        <v>553</v>
       </c>
       <c r="E136" t="s">
-        <v>473</v>
+        <v>554</v>
       </c>
       <c r="F136" t="s">
         <v>19</v>
@@ -7352,7 +7817,9 @@
       <c r="G136" t="s">
         <v>20</v>
       </c>
-      <c r="H136" s="2"/>
+      <c r="H136" t="s">
+        <v>555</v>
+      </c>
       <c r="I136" t="s">
         <v>22</v>
       </c>
@@ -7365,26 +7832,26 @@
       <c r="L136" t="s">
         <v>25</v>
       </c>
-      <c r="M136" s="3"/>
+      <c r="M136" s="2"/>
       <c r="N136" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>474</v>
+        <v>556</v>
       </c>
       <c r="B137" t="s">
         <v>15</v>
       </c>
       <c r="C137" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D137" t="s">
-        <v>475</v>
+        <v>557</v>
       </c>
       <c r="E137" t="s">
-        <v>476</v>
+        <v>558</v>
       </c>
       <c r="F137" t="s">
         <v>19</v>
@@ -7392,7 +7859,9 @@
       <c r="G137" t="s">
         <v>20</v>
       </c>
-      <c r="H137" s="2"/>
+      <c r="H137" t="s">
+        <v>496</v>
+      </c>
       <c r="I137" t="s">
         <v>22</v>
       </c>
@@ -7405,26 +7874,26 @@
       <c r="L137" t="s">
         <v>25</v>
       </c>
-      <c r="M137" s="3"/>
+      <c r="M137" s="2"/>
       <c r="N137" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>477</v>
+        <v>559</v>
       </c>
       <c r="B138" t="s">
         <v>15</v>
       </c>
       <c r="C138" t="s">
-        <v>417</v>
+        <v>485</v>
       </c>
       <c r="D138" t="s">
-        <v>478</v>
+        <v>560</v>
       </c>
       <c r="E138" t="s">
-        <v>479</v>
+        <v>561</v>
       </c>
       <c r="F138" t="s">
         <v>19</v>
@@ -7432,7 +7901,9 @@
       <c r="G138" t="s">
         <v>20</v>
       </c>
-      <c r="H138" s="2"/>
+      <c r="H138" t="s">
+        <v>562</v>
+      </c>
       <c r="I138" t="s">
         <v>22</v>
       </c>
@@ -7445,26 +7916,26 @@
       <c r="L138" t="s">
         <v>25</v>
       </c>
-      <c r="M138" s="3"/>
+      <c r="M138" s="2"/>
       <c r="N138" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>480</v>
+        <v>563</v>
       </c>
       <c r="B139" t="s">
         <v>15</v>
       </c>
       <c r="C139" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D139" t="s">
-        <v>481</v>
+        <v>564</v>
       </c>
       <c r="E139" t="s">
-        <v>482</v>
+        <v>565</v>
       </c>
       <c r="F139" t="s">
         <v>19</v>
@@ -7472,7 +7943,9 @@
       <c r="G139" t="s">
         <v>20</v>
       </c>
-      <c r="H139" s="2"/>
+      <c r="H139" t="s">
+        <v>566</v>
+      </c>
       <c r="I139" t="s">
         <v>22</v>
       </c>
@@ -7485,26 +7958,26 @@
       <c r="L139" t="s">
         <v>25</v>
       </c>
-      <c r="M139" s="3"/>
+      <c r="M139" s="2"/>
       <c r="N139" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>483</v>
+        <v>567</v>
       </c>
       <c r="B140" t="s">
         <v>15</v>
       </c>
       <c r="C140" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D140" t="s">
-        <v>484</v>
+        <v>568</v>
       </c>
       <c r="E140" t="s">
-        <v>485</v>
+        <v>569</v>
       </c>
       <c r="F140" t="s">
         <v>19</v>
@@ -7512,7 +7985,9 @@
       <c r="G140" t="s">
         <v>20</v>
       </c>
-      <c r="H140" s="2"/>
+      <c r="H140" t="s">
+        <v>570</v>
+      </c>
       <c r="I140" t="s">
         <v>22</v>
       </c>
@@ -7525,7 +8000,7 @@
       <c r="L140" t="s">
         <v>25</v>
       </c>
-      <c r="M140" s="3"/>
+      <c r="M140" s="2"/>
       <c r="N140" t="s">
         <v>26</v>
       </c>
@@ -7546,10 +8021,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>486</v>
+        <v>571</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>487</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2">
@@ -7557,7 +8032,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>488</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3">
@@ -7565,7 +8040,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>489</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4">
@@ -7573,7 +8048,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5">
@@ -7581,7 +8056,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>491</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6">
@@ -7589,7 +8064,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>492</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7">
@@ -7597,7 +8072,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>493</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8">
@@ -7605,7 +8080,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>494</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9">
@@ -7613,7 +8088,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>495</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10">
@@ -7621,7 +8096,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>496</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11">
@@ -7629,7 +8104,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>497</v>
+        <v>582</v>
       </c>
     </row>
     <row r="12">
@@ -7637,7 +8112,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>498</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13">
@@ -7645,7 +8120,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>499</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14">
@@ -7653,7 +8128,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>500</v>
+        <v>585</v>
       </c>
     </row>
     <row r="15">
@@ -7661,7 +8136,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>501</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P10_2/table_to_fill.xlsx
+++ b/analysis/mails_01/P10_2/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="584">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -388,15 +388,6 @@
   </si>
   <si>
     <t xml:space="preserve">Gudenå</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.8255986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8112735</t>
   </si>
   <si>
     <t xml:space="preserve">MFD01464</t>
@@ -3225,13 +3216,13 @@
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F27" t="s">
         <v>19</v>
@@ -3240,7 +3231,7 @@
         <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="I27" t="s">
         <v>22</v>
@@ -3261,19 +3252,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
@@ -3282,7 +3273,7 @@
         <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I28" t="s">
         <v>22</v>
@@ -3303,19 +3294,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F29" t="s">
         <v>19</v>
@@ -3324,7 +3315,7 @@
         <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
@@ -3345,19 +3336,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E30" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F30" t="s">
         <v>19</v>
@@ -3366,7 +3357,7 @@
         <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="I30" t="s">
         <v>22</v>
@@ -3387,13 +3378,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
         <v>145</v>
@@ -3408,7 +3399,7 @@
         <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I31" t="s">
         <v>22</v>
@@ -3435,7 +3426,7 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
         <v>148</v>
@@ -3450,7 +3441,7 @@
         <v>20</v>
       </c>
       <c r="H32" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="I32" t="s">
         <v>22</v>
@@ -3471,19 +3462,19 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="D33" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E33" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F33" t="s">
         <v>19</v>
@@ -3492,7 +3483,7 @@
         <v>20</v>
       </c>
       <c r="H33" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I33" t="s">
         <v>22</v>
@@ -3513,19 +3504,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D34" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E34" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F34" t="s">
         <v>19</v>
@@ -3534,7 +3525,7 @@
         <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I34" t="s">
         <v>22</v>
@@ -3555,19 +3546,19 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F35" t="s">
         <v>19</v>
@@ -3576,7 +3567,7 @@
         <v>20</v>
       </c>
       <c r="H35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I35" t="s">
         <v>22</v>
@@ -3597,19 +3588,19 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F36" t="s">
         <v>19</v>
@@ -3618,7 +3609,7 @@
         <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I36" t="s">
         <v>22</v>
@@ -3639,19 +3630,19 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D37" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E37" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
@@ -3660,7 +3651,7 @@
         <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I37" t="s">
         <v>22</v>
@@ -3681,19 +3672,19 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="D38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F38" t="s">
         <v>19</v>
@@ -3702,7 +3693,7 @@
         <v>20</v>
       </c>
       <c r="H38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I38" t="s">
         <v>22</v>
@@ -3723,19 +3714,19 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="D39" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E39" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F39" t="s">
         <v>19</v>
@@ -3744,7 +3735,7 @@
         <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I39" t="s">
         <v>22</v>
@@ -3765,19 +3756,19 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D40" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E40" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
@@ -3786,7 +3777,7 @@
         <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I40" t="s">
         <v>22</v>
@@ -3807,19 +3798,19 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D41" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F41" t="s">
         <v>19</v>
@@ -3828,7 +3819,7 @@
         <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I41" t="s">
         <v>22</v>
@@ -3849,19 +3840,19 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="D42" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E42" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
@@ -3870,7 +3861,7 @@
         <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I42" t="s">
         <v>22</v>
@@ -3891,19 +3882,19 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D43" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F43" t="s">
         <v>19</v>
@@ -3912,7 +3903,7 @@
         <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I43" t="s">
         <v>22</v>
@@ -3933,19 +3924,19 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D44" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E44" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
@@ -3954,7 +3945,7 @@
         <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I44" t="s">
         <v>22</v>
@@ -3975,19 +3966,19 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="D45" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E45" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F45" t="s">
         <v>19</v>
@@ -3996,7 +3987,7 @@
         <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
@@ -4017,19 +4008,19 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="D46" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E46" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F46" t="s">
         <v>19</v>
@@ -4038,7 +4029,7 @@
         <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I46" t="s">
         <v>22</v>
@@ -4059,19 +4050,19 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="D47" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E47" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F47" t="s">
         <v>19</v>
@@ -4080,7 +4071,7 @@
         <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="I47" t="s">
         <v>22</v>
@@ -4107,13 +4098,13 @@
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>155</v>
+        <v>218</v>
       </c>
       <c r="D48" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E48" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
@@ -4122,7 +4113,7 @@
         <v>20</v>
       </c>
       <c r="H48" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="I48" t="s">
         <v>22</v>
@@ -4143,19 +4134,19 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="D49" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E49" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F49" t="s">
         <v>19</v>
@@ -4164,7 +4155,7 @@
         <v>20</v>
       </c>
       <c r="H49" t="s">
-        <v>224</v>
+        <v>124</v>
       </c>
       <c r="I49" t="s">
         <v>22</v>
@@ -4191,13 +4182,13 @@
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="D50" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E50" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F50" t="s">
         <v>19</v>
@@ -4206,7 +4197,7 @@
         <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="I50" t="s">
         <v>22</v>
@@ -4227,19 +4218,19 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c r="D51" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E51" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F51" t="s">
         <v>19</v>
@@ -4248,7 +4239,7 @@
         <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I51" t="s">
         <v>22</v>
@@ -4269,19 +4260,19 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="D52" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E52" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
@@ -4290,7 +4281,7 @@
         <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I52" t="s">
         <v>22</v>
@@ -4311,19 +4302,19 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>238</v>
+        <v>152</v>
       </c>
       <c r="D53" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E53" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
@@ -4332,7 +4323,7 @@
         <v>20</v>
       </c>
       <c r="H53" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="I53" t="s">
         <v>22</v>
@@ -4359,7 +4350,7 @@
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D54" t="s">
         <v>243</v>
@@ -4374,7 +4365,7 @@
         <v>20</v>
       </c>
       <c r="H54" t="s">
-        <v>171</v>
+        <v>245</v>
       </c>
       <c r="I54" t="s">
         <v>22</v>
@@ -4395,19 +4386,19 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D55" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E55" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F55" t="s">
         <v>19</v>
@@ -4416,7 +4407,7 @@
         <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I55" t="s">
         <v>22</v>
@@ -4437,19 +4428,19 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="D56" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E56" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F56" t="s">
         <v>19</v>
@@ -4458,7 +4449,7 @@
         <v>20</v>
       </c>
       <c r="H56" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I56" t="s">
         <v>22</v>
@@ -4479,19 +4470,19 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="D57" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E57" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F57" t="s">
         <v>19</v>
@@ -4500,7 +4491,7 @@
         <v>20</v>
       </c>
       <c r="H57" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I57" t="s">
         <v>22</v>
@@ -4521,19 +4512,19 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="D58" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E58" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F58" t="s">
         <v>19</v>
@@ -4542,7 +4533,7 @@
         <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I58" t="s">
         <v>22</v>
@@ -4563,19 +4554,19 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D59" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E59" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F59" t="s">
         <v>19</v>
@@ -4584,7 +4575,7 @@
         <v>20</v>
       </c>
       <c r="H59" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I59" t="s">
         <v>22</v>
@@ -4605,19 +4596,19 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D60" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E60" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F60" t="s">
         <v>19</v>
@@ -4626,7 +4617,7 @@
         <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I60" t="s">
         <v>22</v>
@@ -4647,19 +4638,19 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="D61" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E61" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F61" t="s">
         <v>19</v>
@@ -4668,7 +4659,7 @@
         <v>20</v>
       </c>
       <c r="H61" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="I61" t="s">
         <v>22</v>
@@ -4695,13 +4686,13 @@
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>173</v>
+        <v>274</v>
       </c>
       <c r="D62" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E62" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F62" t="s">
         <v>19</v>
@@ -4710,7 +4701,7 @@
         <v>20</v>
       </c>
       <c r="H62" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="I62" t="s">
         <v>22</v>
@@ -4731,19 +4722,19 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>277</v>
+        <v>179</v>
       </c>
       <c r="D63" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E63" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F63" t="s">
         <v>19</v>
@@ -4752,7 +4743,7 @@
         <v>20</v>
       </c>
       <c r="H63" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="I63" t="s">
         <v>22</v>
@@ -4779,7 +4770,7 @@
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>182</v>
+        <v>274</v>
       </c>
       <c r="D64" t="s">
         <v>282</v>
@@ -4794,7 +4785,7 @@
         <v>20</v>
       </c>
       <c r="H64" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="I64" t="s">
         <v>22</v>
@@ -4815,19 +4806,19 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="D65" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E65" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F65" t="s">
         <v>19</v>
@@ -4836,7 +4827,7 @@
         <v>20</v>
       </c>
       <c r="H65" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I65" t="s">
         <v>22</v>
@@ -4857,19 +4848,19 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>238</v>
+        <v>170</v>
       </c>
       <c r="D66" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E66" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F66" t="s">
         <v>19</v>
@@ -4878,7 +4869,7 @@
         <v>20</v>
       </c>
       <c r="H66" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="I66" t="s">
         <v>22</v>
@@ -4905,7 +4896,7 @@
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="D67" t="s">
         <v>293</v>
@@ -4920,7 +4911,7 @@
         <v>20</v>
       </c>
       <c r="H67" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="I67" t="s">
         <v>22</v>
@@ -4941,19 +4932,19 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>155</v>
+        <v>297</v>
       </c>
       <c r="D68" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E68" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F68" t="s">
         <v>19</v>
@@ -4962,7 +4953,7 @@
         <v>20</v>
       </c>
       <c r="H68" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I68" t="s">
         <v>22</v>
@@ -4983,19 +4974,19 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B69" t="s">
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D69" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E69" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F69" t="s">
         <v>19</v>
@@ -5004,7 +4995,7 @@
         <v>20</v>
       </c>
       <c r="H69" t="s">
-        <v>303</v>
+        <v>124</v>
       </c>
       <c r="I69" t="s">
         <v>22</v>
@@ -5025,19 +5016,19 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D70" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E70" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F70" t="s">
         <v>19</v>
@@ -5046,7 +5037,7 @@
         <v>20</v>
       </c>
       <c r="H70" t="s">
-        <v>124</v>
+        <v>309</v>
       </c>
       <c r="I70" t="s">
         <v>22</v>
@@ -5067,19 +5058,19 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D71" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E71" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F71" t="s">
         <v>19</v>
@@ -5088,7 +5079,7 @@
         <v>20</v>
       </c>
       <c r="H71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I71" t="s">
         <v>22</v>
@@ -5109,19 +5100,19 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B72" t="s">
         <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>305</v>
+        <v>157</v>
       </c>
       <c r="D72" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E72" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F72" t="s">
         <v>19</v>
@@ -5130,7 +5121,7 @@
         <v>20</v>
       </c>
       <c r="H72" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I72" t="s">
         <v>22</v>
@@ -5151,19 +5142,19 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="D73" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E73" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F73" t="s">
         <v>19</v>
@@ -5172,7 +5163,7 @@
         <v>20</v>
       </c>
       <c r="H73" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I73" t="s">
         <v>22</v>
@@ -5193,19 +5184,19 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="D74" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E74" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F74" t="s">
         <v>19</v>
@@ -5214,7 +5205,7 @@
         <v>20</v>
       </c>
       <c r="H74" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I74" t="s">
         <v>22</v>
@@ -5235,19 +5226,19 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B75" t="s">
         <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>229</v>
+        <v>297</v>
       </c>
       <c r="D75" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E75" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F75" t="s">
         <v>19</v>
@@ -5256,7 +5247,7 @@
         <v>20</v>
       </c>
       <c r="H75" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="I75" t="s">
         <v>22</v>
@@ -5283,7 +5274,7 @@
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="D76" t="s">
         <v>330</v>
@@ -5298,7 +5289,7 @@
         <v>20</v>
       </c>
       <c r="H76" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="I76" t="s">
         <v>22</v>
@@ -5319,19 +5310,19 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="D77" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E77" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
@@ -5340,7 +5331,7 @@
         <v>20</v>
       </c>
       <c r="H77" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I77" t="s">
         <v>22</v>
@@ -5361,19 +5352,19 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>309</v>
+        <v>206</v>
       </c>
       <c r="D78" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E78" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
@@ -5382,7 +5373,7 @@
         <v>20</v>
       </c>
       <c r="H78" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I78" t="s">
         <v>22</v>
@@ -5403,19 +5394,19 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>209</v>
+        <v>274</v>
       </c>
       <c r="D79" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E79" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
@@ -5424,7 +5415,7 @@
         <v>20</v>
       </c>
       <c r="H79" t="s">
-        <v>343</v>
+        <v>257</v>
       </c>
       <c r="I79" t="s">
         <v>22</v>
@@ -5451,7 +5442,7 @@
         <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>277</v>
+        <v>179</v>
       </c>
       <c r="D80" t="s">
         <v>345</v>
@@ -5466,7 +5457,7 @@
         <v>20</v>
       </c>
       <c r="H80" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I80" t="s">
         <v>22</v>
@@ -5493,7 +5484,7 @@
         <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="D81" t="s">
         <v>348</v>
@@ -5508,7 +5499,7 @@
         <v>20</v>
       </c>
       <c r="H81" t="s">
-        <v>252</v>
+        <v>350</v>
       </c>
       <c r="I81" t="s">
         <v>22</v>
@@ -5529,19 +5520,19 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="D82" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E82" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
@@ -5550,7 +5541,7 @@
         <v>20</v>
       </c>
       <c r="H82" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I82" t="s">
         <v>22</v>
@@ -5571,19 +5562,19 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B83" t="s">
         <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>155</v>
+        <v>297</v>
       </c>
       <c r="D83" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E83" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
@@ -5592,7 +5583,7 @@
         <v>20</v>
       </c>
       <c r="H83" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I83" t="s">
         <v>22</v>
@@ -5613,19 +5604,19 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>300</v>
+        <v>152</v>
       </c>
       <c r="D84" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E84" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
@@ -5634,7 +5625,7 @@
         <v>20</v>
       </c>
       <c r="H84" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I84" t="s">
         <v>22</v>
@@ -5655,19 +5646,19 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="D85" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E85" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
@@ -5676,7 +5667,7 @@
         <v>20</v>
       </c>
       <c r="H85" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I85" t="s">
         <v>22</v>
@@ -5697,19 +5688,19 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B86" t="s">
         <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="D86" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E86" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
@@ -5718,7 +5709,7 @@
         <v>20</v>
       </c>
       <c r="H86" t="s">
-        <v>369</v>
+        <v>164</v>
       </c>
       <c r="I86" t="s">
         <v>22</v>
@@ -5745,7 +5736,7 @@
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="D87" t="s">
         <v>371</v>
@@ -5760,7 +5751,7 @@
         <v>20</v>
       </c>
       <c r="H87" t="s">
-        <v>167</v>
+        <v>373</v>
       </c>
       <c r="I87" t="s">
         <v>22</v>
@@ -5781,19 +5772,19 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B88" t="s">
         <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>134</v>
+        <v>302</v>
       </c>
       <c r="D88" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E88" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
@@ -5802,7 +5793,7 @@
         <v>20</v>
       </c>
       <c r="H88" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I88" t="s">
         <v>22</v>
@@ -5823,19 +5814,19 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>305</v>
+        <v>179</v>
       </c>
       <c r="D89" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E89" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
@@ -5844,7 +5835,7 @@
         <v>20</v>
       </c>
       <c r="H89" t="s">
-        <v>380</v>
+        <v>249</v>
       </c>
       <c r="I89" t="s">
         <v>22</v>
@@ -5871,7 +5862,7 @@
         <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="D90" t="s">
         <v>382</v>
@@ -5886,7 +5877,7 @@
         <v>20</v>
       </c>
       <c r="H90" t="s">
-        <v>252</v>
+        <v>124</v>
       </c>
       <c r="I90" t="s">
         <v>22</v>
@@ -5913,7 +5904,7 @@
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D91" t="s">
         <v>385</v>
@@ -5928,7 +5919,7 @@
         <v>20</v>
       </c>
       <c r="H91" t="s">
-        <v>124</v>
+        <v>387</v>
       </c>
       <c r="I91" t="s">
         <v>22</v>
@@ -5949,19 +5940,19 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B92" t="s">
         <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D92" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E92" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F92" t="s">
         <v>19</v>
@@ -5970,7 +5961,7 @@
         <v>20</v>
       </c>
       <c r="H92" t="s">
-        <v>390</v>
+        <v>249</v>
       </c>
       <c r="I92" t="s">
         <v>22</v>
@@ -5997,7 +5988,7 @@
         <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="D93" t="s">
         <v>392</v>
@@ -6012,7 +6003,7 @@
         <v>20</v>
       </c>
       <c r="H93" t="s">
-        <v>252</v>
+        <v>394</v>
       </c>
       <c r="I93" t="s">
         <v>22</v>
@@ -6033,19 +6024,19 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B94" t="s">
         <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D94" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E94" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F94" t="s">
         <v>19</v>
@@ -6054,7 +6045,7 @@
         <v>20</v>
       </c>
       <c r="H94" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I94" t="s">
         <v>22</v>
@@ -6075,19 +6066,19 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B95" t="s">
         <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c r="D95" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E95" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F95" t="s">
         <v>19</v>
@@ -6096,7 +6087,7 @@
         <v>20</v>
       </c>
       <c r="H95" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I95" t="s">
         <v>22</v>
@@ -6117,19 +6108,19 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B96" t="s">
         <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>155</v>
+        <v>274</v>
       </c>
       <c r="D96" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E96" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F96" t="s">
         <v>19</v>
@@ -6138,7 +6129,7 @@
         <v>20</v>
       </c>
       <c r="H96" t="s">
-        <v>405</v>
+        <v>284</v>
       </c>
       <c r="I96" t="s">
         <v>22</v>
@@ -6165,7 +6156,7 @@
         <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>277</v>
+        <v>170</v>
       </c>
       <c r="D97" t="s">
         <v>407</v>
@@ -6180,7 +6171,7 @@
         <v>20</v>
       </c>
       <c r="H97" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="I97" t="s">
         <v>22</v>
@@ -6207,7 +6198,7 @@
         <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>173</v>
+        <v>302</v>
       </c>
       <c r="D98" t="s">
         <v>410</v>
@@ -6222,7 +6213,7 @@
         <v>20</v>
       </c>
       <c r="H98" t="s">
-        <v>260</v>
+        <v>124</v>
       </c>
       <c r="I98" t="s">
         <v>22</v>
@@ -6249,7 +6240,7 @@
         <v>15</v>
       </c>
       <c r="C99" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="D99" t="s">
         <v>413</v>
@@ -6291,7 +6282,7 @@
         <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>277</v>
+        <v>206</v>
       </c>
       <c r="D100" t="s">
         <v>416</v>
@@ -6306,7 +6297,7 @@
         <v>20</v>
       </c>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>418</v>
       </c>
       <c r="I100" t="s">
         <v>22</v>
@@ -6327,19 +6318,19 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B101" t="s">
         <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>209</v>
+        <v>274</v>
       </c>
       <c r="D101" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E101" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
@@ -6348,7 +6339,7 @@
         <v>20</v>
       </c>
       <c r="H101" t="s">
-        <v>421</v>
+        <v>257</v>
       </c>
       <c r="I101" t="s">
         <v>22</v>
@@ -6375,7 +6366,7 @@
         <v>15</v>
       </c>
       <c r="C102" t="s">
-        <v>277</v>
+        <v>152</v>
       </c>
       <c r="D102" t="s">
         <v>423</v>
@@ -6390,7 +6381,7 @@
         <v>20</v>
       </c>
       <c r="H102" t="s">
-        <v>260</v>
+        <v>425</v>
       </c>
       <c r="I102" t="s">
         <v>22</v>
@@ -6411,19 +6402,19 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B103" t="s">
         <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="D103" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E103" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
@@ -6432,7 +6423,7 @@
         <v>20</v>
       </c>
       <c r="H103" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I103" t="s">
         <v>22</v>
@@ -6453,19 +6444,19 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B104" t="s">
         <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="D104" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E104" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
@@ -6474,7 +6465,7 @@
         <v>20</v>
       </c>
       <c r="H104" t="s">
-        <v>432</v>
+        <v>257</v>
       </c>
       <c r="I104" t="s">
         <v>22</v>
@@ -6501,7 +6492,7 @@
         <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D105" t="s">
         <v>434</v>
@@ -6516,7 +6507,7 @@
         <v>20</v>
       </c>
       <c r="H105" t="s">
-        <v>260</v>
+        <v>436</v>
       </c>
       <c r="I105" t="s">
         <v>22</v>
@@ -6537,19 +6528,19 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B106" t="s">
         <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>277</v>
+        <v>206</v>
       </c>
       <c r="D106" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E106" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
@@ -6558,7 +6549,7 @@
         <v>20</v>
       </c>
       <c r="H106" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I106" t="s">
         <v>22</v>
@@ -6579,19 +6570,19 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B107" t="s">
         <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="D107" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E107" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F107" t="s">
         <v>19</v>
@@ -6600,7 +6591,7 @@
         <v>20</v>
       </c>
       <c r="H107" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I107" t="s">
         <v>22</v>
@@ -6621,19 +6612,19 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
       </c>
       <c r="C108" t="s">
-        <v>309</v>
+        <v>152</v>
       </c>
       <c r="D108" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E108" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F108" t="s">
         <v>19</v>
@@ -6642,7 +6633,7 @@
         <v>20</v>
       </c>
       <c r="H108" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I108" t="s">
         <v>22</v>
@@ -6663,19 +6654,19 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B109" t="s">
         <v>15</v>
       </c>
       <c r="C109" t="s">
-        <v>155</v>
+        <v>297</v>
       </c>
       <c r="D109" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E109" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F109" t="s">
         <v>19</v>
@@ -6684,7 +6675,7 @@
         <v>20</v>
       </c>
       <c r="H109" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I109" t="s">
         <v>22</v>
@@ -6705,19 +6696,19 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B110" t="s">
         <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D110" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E110" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F110" t="s">
         <v>19</v>
@@ -6726,7 +6717,7 @@
         <v>20</v>
       </c>
       <c r="H110" t="s">
-        <v>455</v>
+        <v>124</v>
       </c>
       <c r="I110" t="s">
         <v>22</v>
@@ -6753,7 +6744,7 @@
         <v>15</v>
       </c>
       <c r="C111" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D111" t="s">
         <v>457</v>
@@ -6795,7 +6786,7 @@
         <v>15</v>
       </c>
       <c r="C112" t="s">
-        <v>305</v>
+        <v>226</v>
       </c>
       <c r="D112" t="s">
         <v>460</v>
@@ -6810,7 +6801,7 @@
         <v>20</v>
       </c>
       <c r="H112" t="s">
-        <v>124</v>
+        <v>462</v>
       </c>
       <c r="I112" t="s">
         <v>22</v>
@@ -6831,19 +6822,19 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B113" t="s">
         <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D113" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E113" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F113" t="s">
         <v>19</v>
@@ -6852,7 +6843,7 @@
         <v>20</v>
       </c>
       <c r="H113" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I113" t="s">
         <v>22</v>
@@ -6873,19 +6864,19 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B114" t="s">
         <v>15</v>
       </c>
       <c r="C114" t="s">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c r="D114" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E114" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F114" t="s">
         <v>19</v>
@@ -6894,7 +6885,7 @@
         <v>20</v>
       </c>
       <c r="H114" t="s">
-        <v>469</v>
+        <v>155</v>
       </c>
       <c r="I114" t="s">
         <v>22</v>
@@ -6921,7 +6912,7 @@
         <v>15</v>
       </c>
       <c r="C115" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D115" t="s">
         <v>471</v>
@@ -6936,7 +6927,7 @@
         <v>20</v>
       </c>
       <c r="H115" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I115" t="s">
         <v>22</v>
@@ -6963,7 +6954,7 @@
         <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="D116" t="s">
         <v>474</v>
@@ -6978,7 +6969,7 @@
         <v>20</v>
       </c>
       <c r="H116" t="s">
-        <v>158</v>
+        <v>476</v>
       </c>
       <c r="I116" t="s">
         <v>22</v>
@@ -6999,19 +6990,19 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B117" t="s">
         <v>15</v>
       </c>
       <c r="C117" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D117" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E117" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F117" t="s">
         <v>19</v>
@@ -7020,7 +7011,7 @@
         <v>20</v>
       </c>
       <c r="H117" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I117" t="s">
         <v>22</v>
@@ -7041,19 +7032,19 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B118" t="s">
         <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>134</v>
+        <v>482</v>
       </c>
       <c r="D118" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E118" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F118" t="s">
         <v>19</v>
@@ -7062,7 +7053,7 @@
         <v>20</v>
       </c>
       <c r="H118" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="I118" t="s">
         <v>22</v>
@@ -7083,19 +7074,19 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B119" t="s">
         <v>15</v>
       </c>
       <c r="C119" t="s">
-        <v>485</v>
+        <v>126</v>
       </c>
       <c r="D119" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E119" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F119" t="s">
         <v>19</v>
@@ -7104,7 +7095,7 @@
         <v>20</v>
       </c>
       <c r="H119" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I119" t="s">
         <v>22</v>
@@ -7125,19 +7116,19 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B120" t="s">
         <v>15</v>
       </c>
       <c r="C120" t="s">
-        <v>129</v>
+        <v>482</v>
       </c>
       <c r="D120" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E120" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F120" t="s">
         <v>19</v>
@@ -7146,7 +7137,7 @@
         <v>20</v>
       </c>
       <c r="H120" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="I120" t="s">
         <v>22</v>
@@ -7167,19 +7158,19 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B121" t="s">
         <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D121" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E121" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F121" t="s">
         <v>19</v>
@@ -7188,7 +7179,7 @@
         <v>20</v>
       </c>
       <c r="H121" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="I121" t="s">
         <v>22</v>
@@ -7209,19 +7200,19 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B122" t="s">
         <v>15</v>
       </c>
       <c r="C122" t="s">
-        <v>485</v>
+        <v>126</v>
       </c>
       <c r="D122" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E122" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F122" t="s">
         <v>19</v>
@@ -7230,7 +7221,7 @@
         <v>20</v>
       </c>
       <c r="H122" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I122" t="s">
         <v>22</v>
@@ -7251,28 +7242,28 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>502</v>
+      </c>
+      <c r="B123" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" t="s">
+        <v>126</v>
+      </c>
+      <c r="D123" t="s">
+        <v>503</v>
+      </c>
+      <c r="E123" t="s">
+        <v>504</v>
+      </c>
+      <c r="F123" t="s">
+        <v>19</v>
+      </c>
+      <c r="G123" t="s">
+        <v>20</v>
+      </c>
+      <c r="H123" t="s">
         <v>501</v>
-      </c>
-      <c r="B123" t="s">
-        <v>15</v>
-      </c>
-      <c r="C123" t="s">
-        <v>129</v>
-      </c>
-      <c r="D123" t="s">
-        <v>502</v>
-      </c>
-      <c r="E123" t="s">
-        <v>503</v>
-      </c>
-      <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s">
-        <v>20</v>
-      </c>
-      <c r="H123" t="s">
-        <v>504</v>
       </c>
       <c r="I123" t="s">
         <v>22</v>
@@ -7299,7 +7290,7 @@
         <v>15</v>
       </c>
       <c r="C124" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D124" t="s">
         <v>506</v>
@@ -7314,7 +7305,7 @@
         <v>20</v>
       </c>
       <c r="H124" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="I124" t="s">
         <v>22</v>
@@ -7335,19 +7326,19 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B125" t="s">
         <v>15</v>
       </c>
       <c r="C125" t="s">
-        <v>134</v>
+        <v>510</v>
       </c>
       <c r="D125" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E125" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F125" t="s">
         <v>19</v>
@@ -7356,7 +7347,7 @@
         <v>20</v>
       </c>
       <c r="H125" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="I125" t="s">
         <v>22</v>
@@ -7377,19 +7368,19 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B126" t="s">
         <v>15</v>
       </c>
       <c r="C126" t="s">
-        <v>513</v>
+        <v>141</v>
       </c>
       <c r="D126" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E126" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F126" t="s">
         <v>19</v>
@@ -7398,7 +7389,7 @@
         <v>20</v>
       </c>
       <c r="H126" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I126" t="s">
         <v>22</v>
@@ -7419,19 +7410,19 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B127" t="s">
         <v>15</v>
       </c>
       <c r="C127" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D127" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E127" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F127" t="s">
         <v>19</v>
@@ -7440,7 +7431,7 @@
         <v>20</v>
       </c>
       <c r="H127" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="I127" t="s">
         <v>22</v>
@@ -7461,19 +7452,19 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B128" t="s">
         <v>15</v>
       </c>
       <c r="C128" t="s">
-        <v>144</v>
+        <v>523</v>
       </c>
       <c r="D128" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E128" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F128" t="s">
         <v>19</v>
@@ -7482,7 +7473,7 @@
         <v>20</v>
       </c>
       <c r="H128" t="s">
-        <v>524</v>
+        <v>387</v>
       </c>
       <c r="I128" t="s">
         <v>22</v>
@@ -7503,13 +7494,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B129" t="s">
         <v>15</v>
       </c>
       <c r="C129" t="s">
-        <v>526</v>
+        <v>482</v>
       </c>
       <c r="D129" t="s">
         <v>527</v>
@@ -7524,7 +7515,7 @@
         <v>20</v>
       </c>
       <c r="H129" t="s">
-        <v>390</v>
+        <v>493</v>
       </c>
       <c r="I129" t="s">
         <v>22</v>
@@ -7551,7 +7542,7 @@
         <v>15</v>
       </c>
       <c r="C130" t="s">
-        <v>485</v>
+        <v>523</v>
       </c>
       <c r="D130" t="s">
         <v>530</v>
@@ -7566,7 +7557,7 @@
         <v>20</v>
       </c>
       <c r="H130" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="I130" t="s">
         <v>22</v>
@@ -7587,19 +7578,19 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B131" t="s">
         <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D131" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E131" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F131" t="s">
         <v>19</v>
@@ -7608,7 +7599,7 @@
         <v>20</v>
       </c>
       <c r="H131" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="I131" t="s">
         <v>22</v>
@@ -7629,19 +7620,19 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B132" t="s">
         <v>15</v>
       </c>
       <c r="C132" t="s">
-        <v>526</v>
+        <v>136</v>
       </c>
       <c r="D132" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E132" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F132" t="s">
         <v>19</v>
@@ -7650,7 +7641,7 @@
         <v>20</v>
       </c>
       <c r="H132" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I132" t="s">
         <v>22</v>
@@ -7671,19 +7662,19 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B133" t="s">
         <v>15</v>
       </c>
       <c r="C133" t="s">
-        <v>139</v>
+        <v>542</v>
       </c>
       <c r="D133" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E133" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="F133" t="s">
         <v>19</v>
@@ -7692,7 +7683,7 @@
         <v>20</v>
       </c>
       <c r="H133" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="I133" t="s">
         <v>22</v>
@@ -7713,19 +7704,19 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B134" t="s">
         <v>15</v>
       </c>
       <c r="C134" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="D134" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E134" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F134" t="s">
         <v>19</v>
@@ -7734,7 +7725,7 @@
         <v>20</v>
       </c>
       <c r="H134" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="I134" t="s">
         <v>22</v>
@@ -7761,7 +7752,7 @@
         <v>15</v>
       </c>
       <c r="C135" t="s">
-        <v>526</v>
+        <v>136</v>
       </c>
       <c r="D135" t="s">
         <v>550</v>
@@ -7776,7 +7767,7 @@
         <v>20</v>
       </c>
       <c r="H135" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="I135" t="s">
         <v>22</v>
@@ -7797,19 +7788,19 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B136" t="s">
         <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D136" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E136" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F136" t="s">
         <v>19</v>
@@ -7818,7 +7809,7 @@
         <v>20</v>
       </c>
       <c r="H136" t="s">
-        <v>555</v>
+        <v>493</v>
       </c>
       <c r="I136" t="s">
         <v>22</v>
@@ -7845,7 +7836,7 @@
         <v>15</v>
       </c>
       <c r="C137" t="s">
-        <v>129</v>
+        <v>482</v>
       </c>
       <c r="D137" t="s">
         <v>557</v>
@@ -7860,7 +7851,7 @@
         <v>20</v>
       </c>
       <c r="H137" t="s">
-        <v>496</v>
+        <v>559</v>
       </c>
       <c r="I137" t="s">
         <v>22</v>
@@ -7881,19 +7872,19 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B138" t="s">
         <v>15</v>
       </c>
       <c r="C138" t="s">
-        <v>485</v>
+        <v>126</v>
       </c>
       <c r="D138" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E138" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F138" t="s">
         <v>19</v>
@@ -7902,7 +7893,7 @@
         <v>20</v>
       </c>
       <c r="H138" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="I138" t="s">
         <v>22</v>
@@ -7923,19 +7914,19 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B139" t="s">
         <v>15</v>
       </c>
       <c r="C139" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D139" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E139" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F139" t="s">
         <v>19</v>
@@ -7944,7 +7935,7 @@
         <v>20</v>
       </c>
       <c r="H139" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="I139" t="s">
         <v>22</v>
@@ -7960,48 +7951,6 @@
       </c>
       <c r="M139" s="2"/>
       <c r="N139" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>567</v>
-      </c>
-      <c r="B140" t="s">
-        <v>15</v>
-      </c>
-      <c r="C140" t="s">
-        <v>129</v>
-      </c>
-      <c r="D140" t="s">
-        <v>568</v>
-      </c>
-      <c r="E140" t="s">
-        <v>569</v>
-      </c>
-      <c r="F140" t="s">
-        <v>19</v>
-      </c>
-      <c r="G140" t="s">
-        <v>20</v>
-      </c>
-      <c r="H140" t="s">
-        <v>570</v>
-      </c>
-      <c r="I140" t="s">
-        <v>22</v>
-      </c>
-      <c r="J140" t="s">
-        <v>23</v>
-      </c>
-      <c r="K140" t="s">
-        <v>24</v>
-      </c>
-      <c r="L140" t="s">
-        <v>25</v>
-      </c>
-      <c r="M140" s="2"/>
-      <c r="N140" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8021,10 +7970,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2">
@@ -8032,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3">
@@ -8040,7 +7989,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4">
@@ -8048,7 +7997,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5">
@@ -8056,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="6">
@@ -8064,7 +8013,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7">
@@ -8072,7 +8021,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8">
@@ -8080,7 +8029,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9">
@@ -8088,7 +8037,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="10">
@@ -8096,7 +8045,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11">
@@ -8104,7 +8053,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12">
@@ -8112,7 +8061,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13">
@@ -8120,7 +8069,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14">
@@ -8128,7 +8077,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15">
@@ -8136,7 +8085,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
